--- a/backend/data/activities.xlsx
+++ b/backend/data/activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asi\Documents\GitHub\eventhorizon\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9827339E-91F2-476A-886B-EC7B49540CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4297ECA-DFFF-4A59-8FE9-EF7E27229095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="585">
   <si>
     <t>title</t>
   </si>
@@ -229,21 +229,6 @@
     <t>Mission Games: Die Live Game-Show Linz</t>
   </si>
   <si>
-    <t>BBQ im Schloss Café Linz</t>
-  </si>
-  <si>
-    <t>Gasthaus „Zum Schiefen Apfelbaum“</t>
-  </si>
-  <si>
-    <t>Swingolf Linz (HALL.O Swingolf)</t>
-  </si>
-  <si>
-    <t>Stiegl-Klosterhof Linz</t>
-  </si>
-  <si>
-    <t>Zocken im Game &amp; Dine</t>
-  </si>
-  <si>
     <t>Jack the Ripperl</t>
   </si>
   <si>
@@ -349,24 +334,6 @@
     <t>actiongame,rätsel,geschicklichkeit,teambuilding,indoor</t>
   </si>
   <si>
-    <t>cafe,restaurant,gastgarten,aussicht,grill,gruppen,indoor,outdoor</t>
-  </si>
-  <si>
-    <t>gasthaus,tradition,oesterreichisch,mittagsmenue,gruppen,indoor</t>
-  </si>
-  <si>
-    <t>swingolf,discgolf,outdoor,gruppen,teambuilding,spaß</t>
-  </si>
-  <si>
-    <t>braurestaurant,biergarten,oesterreichisch,gruppen,indoor,outdoor</t>
-  </si>
-  <si>
-    <t>boardgames,videogames,pub,nerd,gruppen,indoor</t>
-  </si>
-  <si>
-    <t>ripperl,bbq,restaurant,gruppen,indoor,outdoor</t>
-  </si>
-  <si>
     <t>OOE</t>
   </si>
   <si>
@@ -1706,6 +1673,108 @@
   </si>
   <si>
     <t>Die Kunden sind begeistert vom hohen Spaßfaktor und beschreiben die Anlage als idealen Ort zum Auspowern für Kinder und Erwachsene. Besonders gelobt werden die abwechslungsreichen Sprungbereiche, die Sauberkeit der Halle und das überwiegend freundliche, hilfsbereite Personal. Auch die Organisation von Geburtstagsfeiern wird positiv hervorgehoben. Kritisch sehen Kunden hingegen das Preis-Leistungs-Verhältnis: Die Eintrittspreise sowie die zusätzlichen Kosten für obligatorische Socken und Armbänder werden von vielen als zu hoch empfunden. Vereinzelt werden zudem die hohen Temperaturen und die schlechte Belüftung in der Halle bemängelt.</t>
+  </si>
+  <si>
+    <t>Selbstorganisation</t>
+  </si>
+  <si>
+    <t>[48.29900306288296, 14.307031818368804]</t>
+  </si>
+  <si>
+    <t>Schloss Café Linz: BBQ &amp; Sommerabend fürs Team</t>
+  </si>
+  <si>
+    <t>Zum Schiefen Apfelbaum: Wirtshaus-Genuss mit Charme</t>
+  </si>
+  <si>
+    <t>HALL.O Swingolf Linz: Die entspannte Team-Challenge</t>
+  </si>
+  <si>
+    <t>Stiegl-Klosterhof Linz: Biergarten-Vibes &amp; Feierabendrunde</t>
+  </si>
+  <si>
+    <t>Game &amp; Dine: Zocken, Snacken &amp; Teamspaß</t>
+  </si>
+  <si>
+    <t>Jack the Ripperl: Ripperl-Feast für hungrige Teams</t>
+  </si>
+  <si>
+    <t>RAITEC Kellerstüberl: Pokerabend mit Chips &amp; Cheers</t>
+  </si>
+  <si>
+    <t>RAITEC Kellerstüberl: Lecker Bierchen &amp; Feierabendtalk</t>
+  </si>
+  <si>
+    <t>RAITEC Chill-Out-Zone: Runterkommen, Quatschen, Auftanken</t>
+  </si>
+  <si>
+    <t>Büroparty Deluxe: Musik, Drinks &amp; Smalltalk-Marathon</t>
+  </si>
+  <si>
+    <t>cafe,restaurant,bbq,grill,gastgarten,gruppen,teamevent,outdoor</t>
+  </si>
+  <si>
+    <t>swingolf,discgolf,sport,fun,teambuilding,gruppen,outdoor</t>
+  </si>
+  <si>
+    <t>gasthaus,tradition,österreichisch,essen,gruppen</t>
+  </si>
+  <si>
+    <t>braurestaurant,biergarten,bier,genuss,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>boardgames,videogames,gaming,fun,gruppen,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>ripperl,bbq,grill,restaurant,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>raitec,kellerstüberl,pokern,kartenspiel,drinks,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>raitec,kellerstüberl,bier,trinken,afterwork,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>raitec,chill-out-zone,afterwork,relax,outdoor,bier,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>raitec,büro,party,musik,drinks,bier,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>Entspannte Bier-Runde im Kellerstüberl – anstoßen, plaudern und den Tag gemeinsam ausklingen lassen.</t>
+  </si>
+  <si>
+    <t>Locker abhängen in der Chill-Out-Zone – entspannen, austauschen und neue Energie fürs Team tanken.</t>
+  </si>
+  <si>
+    <t>Afterwork-Büroparty mit Musik und Drinks – unkompliziert feiern und gemeinsam Spaß haben.</t>
+  </si>
+  <si>
+    <t>Gemütlicher Pokerabend im RAITEC Kellerstüberl – Karten, Chips und gute Laune im Team.</t>
+  </si>
+  <si>
+    <t>Das RAITEC Kellerstüberl wird zur kleinen Casino-Nacht: Poker-Setup aufbauen, Chips verteilen, Regeln kurz erklären (Texas Hold’em geht immer) – und schon läuft ein entspannter Abend, bei dem Strategie, Bluffs und viel Gelächter im Vordergrund stehen. Perfekt für Teams, die lieber in kleiner Runde zusammensitzen, nebenbei reden und trotzdem ein „Event-Gefühl“ haben. Optional könnt ihr eine Mini-Siegerehrung machen (z. B. Süßigkeiten, kleines Gadget, Wanderpokal).</t>
+  </si>
+  <si>
+    <t>Unkomplizierter geht’s kaum: Nach der Arbeit runter ins Kellerstüberl, ein (oder zwei) Bierchen aufmachen und einfach den Kopf auslüften. Ohne Programm, ohne Druck – dafür mit Raum für echte Gespräche, gemeinsames Lachen und das berühmte „Wie war dein Tag wirklich?“. Ideal als Afterwork-Format, um neue Kolleg:innen einzubinden, Themen informell zu klären und den Team-Zusammenhalt zu stärken. Snacks, Musik im Hintergrund oder eine kleine Runde Kartenspiele machen’s noch gemütlicher.</t>
+  </si>
+  <si>
+    <t>Die Chill-Out-Zone ist das Gegenprogramm zum Meeting-Marathon: kurz raus aus dem Kopf, rein in den Feierabendmodus. Ob draußen sitzen, etwas trinken, ein bisschen (leise) Musik oder einfach nur plaudern – hier entsteht Teamgefühl ganz nebenbei, weil niemand „performen“ muss. Besonders gut als lockerer Wochenteiler oder zum Start ins Wochenende: 30–60 Minuten entspannen, gemeinsam abschalten, und danach gehen alle mit besserer Laune nach Hause.</t>
+  </si>
+  <si>
+    <t>Wenn’s mal ein bisschen mehr sein darf: Büro auf „Party-Modus“ schalten – Musik an, Drinks kaltstellen, Snacks bereitstellen und die Arbeitswoche mit einer kleinen Feier ausklingen lassen. Das Format ist super flexibel: von gemütlichem Get-together bis „wir tanzen wirklich“. Mit ein paar einfachen Extras wird’s gleich eventiger (Playlist-Wunschbox, Mini-Quiz, Fotospot, Themenabend). Perfekt für Teamerfolge, Geburtstage, Projektabschlüsse oder einfach als moraleboostender Klassiker.</t>
+  </si>
+  <si>
+    <t>im Prinzip nur Snacks &amp; Getränke (ca. 5–15 € p.P.); optional kleiner „Buy-in“ (z.B. 5 €) für einen Team-Preis.</t>
+  </si>
+  <si>
+    <t>Getränke nach Konsum (meist 3–10 € p.P.), dazu Chips/Pizza auf Selbstkostenbasis – kaum Fixkosten.</t>
+  </si>
+  <si>
+    <t>Quasi gratis: je nach Setup nur Getränke/Snacks (0–10 € p.P.); ideal als spontanes Teamformat ohne Budgetfreigabe.</t>
+  </si>
+  <si>
+    <t>meist „BYO + Snacks“ (5–15 € p.P.) Technik/Musik meist vorhanden, daher wenig Zusatzkosten.</t>
   </si>
 </sst>
 </file>
@@ -2086,32 +2155,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.796875" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="53.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" customWidth="1"/>
+    <col min="8" max="8" width="17.53125" customWidth="1"/>
+    <col min="9" max="9" width="86.86328125" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="82.86328125" customWidth="1"/>
+    <col min="12" max="12" width="255.59765625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" customWidth="1"/>
+    <col min="15" max="15" width="19.9296875" customWidth="1"/>
     <col min="16" max="16" width="104.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.06640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -2262,13 +2331,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>28</v>
@@ -2280,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -2301,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>4.9000000000000004</v>
@@ -2310,31 +2379,31 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T2">
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="W2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="X2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Y2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Z2">
         <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -2349,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="AF2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AI2">
         <v>100</v>
@@ -2364,11 +2433,11 @@
         <v>0</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.45">
@@ -2376,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>22</v>
@@ -2391,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" t="s">
         <v>116</v>
       </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>127</v>
-      </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -2412,37 +2481,37 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>4.3</v>
       </c>
       <c r="S3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T3">
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="W3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="X3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Y3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Z3">
         <v>17</v>
       </c>
       <c r="AA3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB3">
         <v>5</v>
@@ -2457,13 +2526,13 @@
         <v>15</v>
       </c>
       <c r="AF3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AI3">
         <v>100</v>
@@ -2472,11 +2541,11 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.45">
@@ -2484,13 +2553,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -2499,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2520,37 +2589,37 @@
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>4.7</v>
       </c>
       <c r="S4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T4">
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="W4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="X4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Y4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Z4">
         <v>21</v>
       </c>
       <c r="AA4" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -2565,13 +2634,13 @@
         <v>6</v>
       </c>
       <c r="AF4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="AI4">
         <v>100</v>
@@ -2580,11 +2649,11 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.45">
@@ -2592,13 +2661,13 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2607,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -2628,37 +2697,37 @@
         <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>4.4000000000000004</v>
       </c>
       <c r="S5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T5">
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="W5" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="X5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Y5" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="Z5">
         <v>17</v>
       </c>
       <c r="AA5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB5">
         <v>3</v>
@@ -2673,13 +2742,13 @@
         <v>15</v>
       </c>
       <c r="AF5" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="AI5">
         <v>100</v>
@@ -2688,11 +2757,11 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.45">
@@ -2700,13 +2769,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -2715,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -2736,37 +2805,37 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
       </c>
       <c r="S6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T6">
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="W6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="X6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="Y6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="Z6">
         <v>125</v>
       </c>
       <c r="AA6" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB6">
         <v>4</v>
@@ -2781,13 +2850,13 @@
         <v>15</v>
       </c>
       <c r="AF6" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AI6">
         <v>100</v>
@@ -2796,11 +2865,11 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.45">
@@ -2808,13 +2877,13 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>24</v>
@@ -2823,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -2844,37 +2913,37 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>4.5999999999999996</v>
       </c>
       <c r="S7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="T7">
         <v>13</v>
       </c>
       <c r="U7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="W7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="X7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="Y7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z7">
         <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB7">
         <v>2</v>
@@ -2889,13 +2958,13 @@
         <v>15</v>
       </c>
       <c r="AF7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="AI7">
         <v>100</v>
@@ -2904,11 +2973,11 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.45">
@@ -2916,13 +2985,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -2934,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -2955,37 +3024,37 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>4.3</v>
       </c>
       <c r="S8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T8">
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="W8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="X8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="Y8" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z8">
         <v>26</v>
       </c>
       <c r="AA8" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -3000,13 +3069,13 @@
         <v>15</v>
       </c>
       <c r="AF8" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="AI8">
         <v>100</v>
@@ -3015,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="AM8" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
@@ -3029,13 +3098,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -3044,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -3065,37 +3134,37 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>4.8</v>
       </c>
       <c r="S9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T9">
         <v>14</v>
       </c>
       <c r="U9" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="W9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="X9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Y9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="Z9">
         <v>105</v>
       </c>
       <c r="AA9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB9">
         <v>3</v>
@@ -3110,13 +3179,13 @@
         <v>15</v>
       </c>
       <c r="AF9" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AI9">
         <v>100</v>
@@ -3125,11 +3194,11 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -3137,13 +3206,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>35</v>
@@ -3155,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
-        <v>134</v>
-      </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -3176,37 +3245,37 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T10">
         <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="W10" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="X10" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Y10" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Z10">
         <v>94</v>
       </c>
       <c r="AA10" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB10">
         <v>3</v>
@@ -3221,13 +3290,13 @@
         <v>15</v>
       </c>
       <c r="AF10" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AI10">
         <v>100</v>
@@ -3236,11 +3305,11 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -3248,13 +3317,13 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -3263,16 +3332,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -3284,37 +3353,37 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>4.5</v>
       </c>
       <c r="S11" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T11">
         <v>8</v>
       </c>
       <c r="U11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="W11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="X11" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Y11" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Z11">
         <v>38</v>
       </c>
       <c r="AA11" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -3329,13 +3398,13 @@
         <v>15</v>
       </c>
       <c r="AF11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AI11">
         <v>100</v>
@@ -3344,11 +3413,11 @@
         <v>0</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -3356,13 +3425,13 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>79</v>
@@ -3371,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -3392,37 +3461,37 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>4.8</v>
       </c>
       <c r="S12" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="W12" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="X12" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="Y12" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Z12">
         <v>29</v>
       </c>
       <c r="AA12" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -3437,13 +3506,13 @@
         <v>15</v>
       </c>
       <c r="AF12" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AI12">
         <v>100</v>
@@ -3452,11 +3521,11 @@
         <v>0</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -3464,13 +3533,13 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>35</v>
@@ -3479,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -3500,37 +3569,37 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>4.7</v>
       </c>
       <c r="S13" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="W13" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="X13" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="Y13" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Z13">
         <v>27</v>
       </c>
       <c r="AA13" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -3545,13 +3614,13 @@
         <v>15</v>
       </c>
       <c r="AF13" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AI13">
         <v>100</v>
@@ -3560,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
@@ -3572,13 +3641,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>22</v>
@@ -3587,16 +3656,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -3608,37 +3677,37 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>4.5999999999999996</v>
       </c>
       <c r="S14" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T14">
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="W14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="X14" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="Y14" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Z14">
         <v>43</v>
       </c>
       <c r="AA14" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -3653,13 +3722,13 @@
         <v>15</v>
       </c>
       <c r="AF14" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="AI14">
         <v>100</v>
@@ -3668,11 +3737,11 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
@@ -3680,13 +3749,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -3698,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -3719,37 +3788,37 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>4.5999999999999996</v>
       </c>
       <c r="S15" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="W15" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="X15" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Y15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Z15">
         <v>7</v>
       </c>
       <c r="AA15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -3764,13 +3833,13 @@
         <v>15</v>
       </c>
       <c r="AF15" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="AI15">
         <v>100</v>
@@ -3779,13 +3848,13 @@
         <v>1</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="AM15" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
@@ -3793,13 +3862,13 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>35</v>
@@ -3811,16 +3880,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3832,37 +3901,37 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
       </c>
       <c r="S16" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="W16" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="X16" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Y16" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Z16">
         <v>14</v>
       </c>
       <c r="AA16" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -3877,13 +3946,13 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="AI16">
         <v>100</v>
@@ -3892,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="AM16" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.45">
@@ -3906,13 +3975,13 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>35</v>
@@ -3924,16 +3993,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -3945,37 +4014,37 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>4.0999999999999996</v>
       </c>
       <c r="S17" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T17">
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="W17" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="X17" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Y17" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Z17">
         <v>21</v>
       </c>
       <c r="AA17" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -3990,13 +4059,13 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AI17">
         <v>100</v>
@@ -4005,13 +4074,13 @@
         <v>1</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="AM17" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.45">
@@ -4019,13 +4088,13 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -4037,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4058,37 +4127,37 @@
         <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>4.4000000000000004</v>
       </c>
       <c r="S18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T18">
         <v>8</v>
       </c>
       <c r="U18" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="W18" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="X18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Y18" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Z18">
         <v>26</v>
       </c>
       <c r="AA18" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -4103,13 +4172,13 @@
         <v>15</v>
       </c>
       <c r="AF18" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AI18">
         <v>100</v>
@@ -4118,13 +4187,13 @@
         <v>1</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="AM18" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.45">
@@ -4132,13 +4201,13 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>45</v>
@@ -4150,16 +4219,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -4171,37 +4240,37 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
       </c>
       <c r="S19" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T19">
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="W19" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="X19" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Y19" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Z19">
         <v>72</v>
       </c>
       <c r="AA19" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -4216,13 +4285,13 @@
         <v>15</v>
       </c>
       <c r="AF19" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AI19">
         <v>100</v>
@@ -4231,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AM19" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.45">
@@ -4245,13 +4314,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>28</v>
@@ -4260,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M20">
         <v>3</v>
@@ -4281,37 +4350,37 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
       </c>
       <c r="S20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T20">
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="W20" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="X20" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Y20" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Z20">
         <v>28</v>
       </c>
       <c r="AA20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB20">
         <v>5</v>
@@ -4326,13 +4395,13 @@
         <v>15</v>
       </c>
       <c r="AF20" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="AI20">
         <v>100</v>
@@ -4341,11 +4410,11 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.45">
@@ -4353,13 +4422,13 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>25</v>
@@ -4368,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -4389,37 +4458,37 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
       </c>
       <c r="S21" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T21">
         <v>14</v>
       </c>
       <c r="U21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="W21" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="X21" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="Y21" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="Z21">
         <v>125</v>
       </c>
       <c r="AA21" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -4434,13 +4503,13 @@
         <v>30</v>
       </c>
       <c r="AF21" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="AI21">
         <v>100</v>
@@ -4449,11 +4518,11 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.45">
@@ -4461,13 +4530,13 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E22">
         <v>59</v>
@@ -4476,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -4497,37 +4566,37 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>4.8</v>
       </c>
       <c r="S22" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T22">
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="W22" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="X22" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Y22" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Z22">
         <v>25</v>
       </c>
       <c r="AA22" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -4542,13 +4611,13 @@
         <v>15</v>
       </c>
       <c r="AF22" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="AI22">
         <v>100</v>
@@ -4557,11 +4626,11 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.45">
@@ -4569,13 +4638,13 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>60</v>
@@ -4587,16 +4656,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -4608,37 +4677,37 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>4.7</v>
       </c>
       <c r="S23" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T23">
         <v>8</v>
       </c>
       <c r="U23" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="W23" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="X23" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Y23" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Z23">
         <v>27</v>
       </c>
       <c r="AA23" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -4653,13 +4722,13 @@
         <v>15</v>
       </c>
       <c r="AF23" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="AI23">
         <v>100</v>
@@ -4668,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AL23" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="AL23" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="AM23" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.45">
@@ -4682,13 +4751,13 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -4700,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -4721,37 +4790,37 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>4.0999999999999996</v>
       </c>
       <c r="S24" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T24">
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="W24" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="X24" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Y24" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="Z24">
         <v>31</v>
       </c>
       <c r="AA24" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -4766,13 +4835,13 @@
         <v>15</v>
       </c>
       <c r="AF24" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="AI24">
         <v>100</v>
@@ -4781,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL24" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="AL24" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="AM24" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.45">
@@ -4795,13 +4864,13 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>35</v>
@@ -4813,16 +4882,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -4834,37 +4903,37 @@
         <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
       </c>
       <c r="S25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T25">
         <v>9</v>
       </c>
       <c r="U25" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="W25" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="X25" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Y25" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Z25">
         <v>60</v>
       </c>
       <c r="AA25" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB25">
         <v>1</v>
@@ -4879,13 +4948,13 @@
         <v>15</v>
       </c>
       <c r="AF25" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="AI25">
         <v>100</v>
@@ -4894,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AL25" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="AL25" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="AM25" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.45">
@@ -4908,13 +4977,13 @@
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -4926,16 +4995,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -4947,37 +5016,37 @@
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>4.0999999999999996</v>
       </c>
       <c r="S26" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T26">
         <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="W26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="X26" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Y26" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="Z26">
         <v>24</v>
       </c>
       <c r="AA26" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -4992,13 +5061,13 @@
         <v>15</v>
       </c>
       <c r="AF26" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="AI26">
         <v>100</v>
@@ -5007,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="AK26" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AL26" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="AL26" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="AM26" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.45">
@@ -5021,13 +5090,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
       </c>
       <c r="E27">
         <v>35</v>
@@ -5039,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -5060,37 +5129,37 @@
         <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>4.4000000000000004</v>
       </c>
       <c r="S27" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T27">
         <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="W27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="X27" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="Y27" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Z27">
         <v>64</v>
       </c>
       <c r="AA27" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -5105,10 +5174,10 @@
         <v>15</v>
       </c>
       <c r="AF27" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="AI27">
         <v>100</v>
@@ -5117,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="AM27" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.45">
@@ -5131,13 +5200,13 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E28">
         <v>35</v>
@@ -5149,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -5170,37 +5239,37 @@
         <v>4</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
       </c>
       <c r="S28" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="W28" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="X28" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Y28" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="Z28">
         <v>13</v>
       </c>
       <c r="AA28" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB28">
         <v>1</v>
@@ -5215,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="AF28" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AI28">
         <v>80</v>
@@ -5224,13 +5293,13 @@
         <v>1</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="AM28" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.45">
@@ -5238,13 +5307,13 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>55</v>
@@ -5253,16 +5322,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -5274,37 +5343,37 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>4.5999999999999996</v>
       </c>
       <c r="S29" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T29">
         <v>5</v>
       </c>
       <c r="U29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="W29" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="X29" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Y29" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Z29">
         <v>32</v>
       </c>
       <c r="AA29" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB29">
         <v>5</v>
@@ -5319,13 +5388,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="AI29">
         <v>100</v>
@@ -5334,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AM29" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.45">
@@ -5345,13 +5414,13 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>45</v>
@@ -5360,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -5381,37 +5450,37 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>4.3</v>
       </c>
       <c r="S30" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T30">
         <v>15</v>
       </c>
       <c r="U30" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="W30" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="X30" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Y30" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="Z30">
         <v>120</v>
       </c>
       <c r="AA30" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB30">
         <v>5</v>
@@ -5426,13 +5495,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="AI30">
         <v>120</v>
@@ -5441,10 +5510,10 @@
         <v>1</v>
       </c>
       <c r="AK30" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AM30" t="s">
         <v>500</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.45">
@@ -5452,13 +5521,13 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>34</v>
@@ -5467,16 +5536,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -5488,37 +5557,37 @@
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>4.9000000000000004</v>
       </c>
       <c r="S31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T31">
         <v>7</v>
       </c>
       <c r="U31" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="W31" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Y31" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Z31">
         <v>38</v>
       </c>
       <c r="AA31" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB31">
         <v>3</v>
@@ -5533,13 +5602,13 @@
         <v>60</v>
       </c>
       <c r="AF31" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="AI31">
         <v>80</v>
@@ -5548,42 +5617,45 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="AM31" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>28</v>
       </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -5595,37 +5667,37 @@
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>4.4000000000000004</v>
       </c>
       <c r="S32" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T32">
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="W32" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Y32" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Z32">
         <v>40</v>
       </c>
       <c r="AA32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB32">
         <v>1</v>
@@ -5640,7 +5712,7 @@
         <v>60</v>
       </c>
       <c r="AF32" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="AI32">
         <v>316</v>
@@ -5649,39 +5721,42 @@
         <v>1</v>
       </c>
       <c r="AM32" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>554</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>565</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>22</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -5693,37 +5768,37 @@
         <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>4.0999999999999996</v>
       </c>
       <c r="S33" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T33">
         <v>6</v>
       </c>
       <c r="U33" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W33" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="X33" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Y33" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Z33">
         <v>36</v>
       </c>
       <c r="AA33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -5738,33 +5813,33 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="AJ33" t="b">
         <v>1</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="AM33" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>555</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>564</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E34">
         <v>14</v>
@@ -5773,16 +5848,16 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -5794,37 +5869,37 @@
         <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>4.5999999999999996</v>
       </c>
       <c r="S34" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T34">
         <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="W34" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="X34" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Y34" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Z34">
         <v>60</v>
       </c>
       <c r="AA34" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB34">
         <v>3</v>
@@ -5839,48 +5914,51 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="AM34" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>556</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>566</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>26</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -5892,37 +5970,37 @@
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>4.2</v>
       </c>
       <c r="S35" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T35">
         <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="W35" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="Z35">
         <v>27</v>
       </c>
       <c r="AA35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -5937,33 +6015,33 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AJ35" t="b">
         <v>1</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="AM35" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>557</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>567</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -5972,16 +6050,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -5993,37 +6071,37 @@
         <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>4.7</v>
       </c>
       <c r="S36" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="X36" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Y36" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="Z36">
         <v>19</v>
       </c>
       <c r="AA36" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AB36">
         <v>3</v>
@@ -6038,51 +6116,54 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AJ36" t="b">
         <v>0</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="AM36" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>568</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -6094,37 +6175,37 @@
         <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
       </c>
       <c r="S37" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="T37">
         <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="W37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="X37" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="Y37" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="Z37">
         <v>28</v>
       </c>
       <c r="AA37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -6139,7 +6220,7 @@
         <v>120</v>
       </c>
       <c r="AF37" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="AI37">
         <v>175</v>
@@ -6148,13 +6229,357 @@
         <v>1</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AM37" t="s">
-        <v>511</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" t="s">
+        <v>576</v>
+      </c>
+      <c r="L38" t="s">
+        <v>577</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38" t="s">
+        <v>581</v>
+      </c>
+      <c r="S38" t="s">
+        <v>223</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB38">
+        <v>5</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <v>9</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI38">
+        <v>18</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>560</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>570</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" t="s">
+        <v>573</v>
+      </c>
+      <c r="L39" t="s">
+        <v>578</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39" t="s">
+        <v>582</v>
+      </c>
+      <c r="S39" t="s">
+        <v>223</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>2</v>
+      </c>
+      <c r="AE39">
+        <v>20</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI39">
+        <v>30</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>561</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>571</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
+        <v>574</v>
+      </c>
+      <c r="L40" t="s">
+        <v>579</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40" t="s">
+        <v>583</v>
+      </c>
+      <c r="S40" t="s">
+        <v>223</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AE40">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI40">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>572</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>575</v>
+      </c>
+      <c r="L41" t="s">
+        <v>580</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>584</v>
+      </c>
+      <c r="S41" t="s">
+        <v>223</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>2</v>
+      </c>
+      <c r="AE41">
+        <v>10</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI41">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6304,6 +6729,10 @@
     <hyperlink ref="AK28" r:id="rId143" xr:uid="{380465A1-CB33-4C75-85D2-396C46FD90A9}"/>
     <hyperlink ref="AK34" r:id="rId144" xr:uid="{A2BCC424-46CB-4CC9-B4CE-48D67BB492EB}"/>
     <hyperlink ref="AK14" r:id="rId145" xr:uid="{B9DA3027-FB1D-46DF-9427-1657F8C00D12}"/>
+    <hyperlink ref="I38" r:id="rId146" xr:uid="{70F10C5C-F544-40DC-ACE6-78E67FFDE95A}"/>
+    <hyperlink ref="I39" r:id="rId147" xr:uid="{6FE34F61-BBF8-45F9-9BE3-8AC6ECF242FD}"/>
+    <hyperlink ref="I40" r:id="rId148" xr:uid="{B1F37709-2A9A-4601-B20B-5C40033DDE22}"/>
+    <hyperlink ref="I41" r:id="rId149" xr:uid="{48076E5C-C957-4672-A7DA-5E4292DC1D28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/activities.xlsx
+++ b/backend/data/activities.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asi\Documents\GitHub\eventhorizon\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4297ECA-DFFF-4A59-8FE9-EF7E27229095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="585">
   <si>
+    <t>listing_id</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>min_participants</t>
   </si>
   <si>
-    <t>accessibility_flags</t>
-  </si>
-  <si>
     <t>weather_dependent</t>
   </si>
   <si>
@@ -133,12 +127,12 @@
     <t>reservation_url</t>
   </si>
   <si>
+    <t>customer_voice</t>
+  </si>
+  <si>
     <t>menu_url</t>
   </si>
   <si>
-    <t>customer_voice</t>
-  </si>
-  <si>
     <t>Masters of Escape: Team-Rätselspaß in Linz</t>
   </si>
   <si>
@@ -229,790 +223,889 @@
     <t>Mission Games: Die Live Game-Show Linz</t>
   </si>
   <si>
+    <t>Schloss Café Linz: BBQ &amp; Sommerabend fürs Team</t>
+  </si>
+  <si>
+    <t>Zum Schiefen Apfelbaum: Wirtshaus-Genuss mit Charme</t>
+  </si>
+  <si>
+    <t>HALL.O Swingolf Linz: Die entspannte Team-Challenge</t>
+  </si>
+  <si>
+    <t>Stiegl-Klosterhof Linz: Biergarten-Vibes &amp; Feierabendrunde</t>
+  </si>
+  <si>
+    <t>Game &amp; Dine: Zocken, Snacken &amp; Teamspaß</t>
+  </si>
+  <si>
+    <t>Jack the Ripperl: Ripperl-Feast für hungrige Teams</t>
+  </si>
+  <si>
+    <t>RAITEC Kellerstüberl: Pokerabend mit Chips &amp; Cheers</t>
+  </si>
+  <si>
+    <t>RAITEC Kellerstüberl: Lecker Bierchen &amp; Feierabendtalk</t>
+  </si>
+  <si>
+    <t>RAITEC Chill-Out-Zone: Runterkommen, Quatschen, Auftanken</t>
+  </si>
+  <si>
+    <t>Büroparty Deluxe: Musik, Drinks &amp; Smalltalk-Marathon</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>relax</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>escape-game,teambuidling,puzzle</t>
+  </si>
+  <si>
+    <t>lasertag,action,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>escape-room,rätsel,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>escape-room,horror,rätsel,teambuilding</t>
+  </si>
+  <si>
+    <t>bowling,essen,trinken,fun,indoor,teambuilding</t>
+  </si>
+  <si>
+    <t>trampolinpark,action,sport,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>führung,brauerei,bier,genuss,teambuilding,kultur</t>
+  </si>
+  <si>
+    <t>indoor-golf,sport,fun,teambuilding</t>
+  </si>
+  <si>
+    <t>virtual-reality,gaming,action,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>technik,innovation,kultur,multimedia,indoor</t>
+  </si>
+  <si>
+    <t>segway,outdoor,sightseeing,teambuilding</t>
+  </si>
+  <si>
+    <t>graffiti,streetart,kreativ,führung,teambuilding,outdoor</t>
+  </si>
+  <si>
+    <t>industrie,führung,technik,lernen,teambuilding</t>
+  </si>
+  <si>
+    <t>restaurant,österreichische-küche,essen,gemütlich,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,italienisch,pizza,pasta,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,wirtshaus,bar,österreichische-küche,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,burger,steak,bar,teamevent</t>
+  </si>
+  <si>
+    <t>heuriger,restaurant,wein,österreichische-küche,teamevent</t>
+  </si>
+  <si>
+    <t>eisstockschiessen,winter,sport,teambuilding,outdoor</t>
+  </si>
+  <si>
+    <t>kino,eventlocation,präsentation,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>cocktailkurs,bar,mixology,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>restaurant,steak,grill,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,steak,burger,pizza,craft-beer,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,wirtshaus,grill,österreichische-küche,teamevent</t>
+  </si>
+  <si>
+    <t>restaurant,bar,brunch,modern,teamevent</t>
+  </si>
+  <si>
+    <t>wirtshaus,österreichische-küche,traditionell,teamevent</t>
+  </si>
+  <si>
+    <t>gasthaus,österreichische-küche,traditionell,teamevent</t>
+  </si>
+  <si>
+    <t>e-kart,kartfahren,action,indoor,teambuilding</t>
+  </si>
+  <si>
+    <t>kartfahren,action,eventlocation,teambuilding,gastro</t>
+  </si>
+  <si>
+    <t>actiongame,rätsel,geschicklichkeit,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>cafe,restaurant,bbq,grill,gastgarten,gruppen,teamevent,outdoor</t>
+  </si>
+  <si>
+    <t>gasthaus,tradition,österreichisch,essen,gruppen</t>
+  </si>
+  <si>
+    <t>swingolf,discgolf,sport,fun,teambuilding,gruppen,outdoor</t>
+  </si>
+  <si>
+    <t>braurestaurant,biergarten,bier,genuss,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>boardgames,videogames,gaming,fun,gruppen,teambuilding,indoor</t>
+  </si>
+  <si>
+    <t>ripperl,bbq,grill,restaurant,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>raitec,kellerstüberl,pokern,kartenspiel,drinks,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>raitec,kellerstüberl,bier,trinken,afterwork,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>raitec,chill-out-zone,afterwork,relax,outdoor,bier,gruppen,teamevent</t>
+  </si>
+  <si>
+    <t>raitec,büro,party,musik,drinks,bier,gruppen,teamevent,indoor</t>
+  </si>
+  <si>
+    <t>OOE</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1498050108023-c5249f4df085?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1521017432531-fbd92d768814?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1529692236671-f1f6cf9683ba?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1535131749006-b7f58c99034b?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1527168027773-0cc890bce99a?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1542751371-adc38448a05e?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1550547660-d9450f859349?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
+  </si>
+  <si>
+    <t>all_year</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>Teamstärkende Rätsel, Spannung, Kooperation, unvergesslicher Spaß.</t>
+  </si>
+  <si>
+    <t>Actionreicher Lasertag-Spaß für Teams mit Strategie, Adrenalin und viel Bewegung.</t>
+  </si>
+  <si>
+    <t>Klassische Escape Rooms mit kniffligen Rätseln und 60 Minuten Zeitdruck.</t>
+  </si>
+  <si>
+    <t>Filmreife Escape-Abenteuer mit starken Storys und viel Adrenalin.</t>
+  </si>
+  <si>
+    <t>Bowling, Games und Gastronomie im großen Family-Entertainment-Center.</t>
+  </si>
+  <si>
+    <t>Großer Trampolin- und Funpark für körperliche Action und Auspowern im Team.</t>
+  </si>
+  <si>
+    <t>Geführter Rundgang durch die Linzer Brauerei mit Blick hinter die Kulissen und Verkostung.</t>
+  </si>
+  <si>
+    <t>Modernes Indoor-Golf mit Simulatoren für Anfänger:innen und Pros.</t>
+  </si>
+  <si>
+    <t>Kooperative VR-Missionen auf großer Spielfläche – gemeinsam in die virtuelle Welt eintauchen.</t>
+  </si>
+  <si>
+    <t>Immersive 8K-Projektionen auf Wand und Boden – digitale Welten in Riesendimension.</t>
+  </si>
+  <si>
+    <t>Geführte Segway-Tour durch Linz und Umgebung – entspannt gleiten statt gehen.</t>
+  </si>
+  <si>
+    <t>Graffiti-Rundgang im Linzer Hafen mit Möglichkeit zum selbst Sprayen.</t>
+  </si>
+  <si>
+    <t>Werksführung mit Blick in die moderne Stahlproduktion und den größten Industriestandort Österreichs.</t>
+  </si>
+  <si>
+    <t>Österreichische Küche in gemütlicher Stubn-Atmosphäre.</t>
+  </si>
+  <si>
+    <t>Italienisches Restaurant mit Pizza, Pasta und mediterranem Flair.</t>
+  </si>
+  <si>
+    <t>Modernes Wirtshaus mit großer Speise- und Getränkekarte im Zentrum von Linz.</t>
+  </si>
+  <si>
+    <t>Stylishes Restaurant mit kreativer Küche und entspannter Bar-Atmosphäre.</t>
+  </si>
+  <si>
+    <t>Gemütlicher Weinstadl mit regionaler Küche und schöner Weinauswahl.</t>
+  </si>
+  <si>
+    <t>„Bratlschießen“ (Eisstockschießen) als lockerer Teamwettbewerb auf dem Eis.</t>
+  </si>
+  <si>
+    <t>Exklusiv angemieteter Kinosaal für Film, Präsentation oder Firmenfeier.</t>
+  </si>
+  <si>
+    <t>Geführter Cocktailkurs mit Profibarkeepern – shaken, rühren, verkosten.</t>
+  </si>
+  <si>
+    <t>Steak- und Grillrestaurant im Zentrum – Fokus auf hochwertigem Fleisch.</t>
+  </si>
+  <si>
+    <t>Stylishes Meat-&amp;-Pizza-Konzept mit offener Küche und Industrial-Charme.</t>
+  </si>
+  <si>
+    <t>Traditionsgasthaus mit Fokus auf Bratwürste und deftige Hausmannskost.</t>
+  </si>
+  <si>
+    <t>Trendige Mischung aus Restaurant, Bar und Café mitten in Linz.</t>
+  </si>
+  <si>
+    <t>Traditionelles Wirtshaus mit regionaler Küche und viel Gemütlichkeit.</t>
+  </si>
+  <si>
+    <t>Gutbürgerliches Gasthaus mit klassischen Speisen und saisonalen Gerichten.</t>
+  </si>
+  <si>
+    <t>E-Kart-Action auf zwei Ebenen mit Augmented Reality Elementen.</t>
+  </si>
+  <si>
+    <t>Kart-Racing + Gastro für bis zu 100 Personen, „Rundum-Service“ für Firmenfeiern.</t>
+  </si>
+  <si>
+    <t>Indoor-Actionspiel mit vielen Missionräumen, in denen Geschick und Teamwork zählen.</t>
+  </si>
+  <si>
+    <t>Restaurant am Linzer Schloss mit Terrasse und Blick über Linz.</t>
+  </si>
+  <si>
+    <t>Traditionsgasthaus in Linz mit warmer Küche und Mittagsmenü.</t>
+  </si>
+  <si>
+    <t>Outdoor-Swingolf/Discgolf-Anlage in Linz-Urfahr – unkompliziert, gruppentauglich.</t>
+  </si>
+  <si>
+    <t>Braurestaurant in der Landstraße mit Biergarten und durchgehenden Küchenzeiten.</t>
+  </si>
+  <si>
+    <t>Gaming-Bar mit Speisen &amp; Drinks – gut für lockere Team-Abende.</t>
+  </si>
+  <si>
+    <t>Ripperl-Spezialist direkt auf der Landstraße – auch mit Bereich für Feiern/Events.</t>
+  </si>
+  <si>
+    <t>Gemütlicher Pokerabend im RAITEC Kellerstüberl – Karten, Chips und gute Laune im Team.</t>
+  </si>
+  <si>
+    <t>Entspannte Bier-Runde im Kellerstüberl – anstoßen, plaudern und den Tag gemeinsam ausklingen lassen.</t>
+  </si>
+  <si>
+    <t>Locker abhängen in der Chill-Out-Zone – entspannen, austauschen und neue Energie fürs Team tanken.</t>
+  </si>
+  <si>
+    <t>Afterwork-Büroparty mit Musik und Drinks – unkompliziert feiern und gemeinsam Spaß haben.</t>
+  </si>
+  <si>
+    <t>Adrenalin, Teamgeist und Rätselspaß: In dieser Escape Room Challenge wachst Ihr als Team zusammen, kommuniziert besser und feiert gemeinsam den Erfolg.</t>
+  </si>
+  <si>
+    <t>In der futuristischen Lasertag-Arena tretet ihr in Teams gegeneinander an, trainiert Taktik, Reaktion und Kommunikation – perfekt, um Kolleg:innen spielerisch zusammenzuschweißen.</t>
+  </si>
+  <si>
+    <t>Ihr werdet gemeinsam in einen Themenraum „eingesperrt“ und müsst innerhalb von 60 Minuten Codes knacken, Hinweise suchen, diese kombinieren und clever um die Ecke denken. Jede Spur kann wichtig sein – von versteckten Botschaften bis zu Mechanismen, die erst im Team Sinn ergeben. Kommunikation, Rollenverteilung und ein kühler Kopf bringen euch voran, während die Zeit gnadenlos läuft. Schafft ihr den Ausweg, wartet das perfekte Erfolgserlebnis für kleine Gruppen mit Grübelspaß.</t>
+  </si>
+  <si>
+    <t>Aufwendig gestaltete Themenräume sorgen für Gänsehaut, Spannung und Teamwork – von magischen bis schaurigen Szenarien arbeitet ihr euch gemeinsam durch Rätsel, Effekte und Überraschungen.</t>
+  </si>
+  <si>
+    <t>Zwischen Bowlingbahnen, Billard und Arcade-Games stärkt ihr euch mit Drinks und Speisen – lockere Atmosphäre für entspannte Firmenfeiern, Afterwork-Events und größere Gruppen.</t>
+  </si>
+  <si>
+    <t>Auf zahlreichen Trampolinen, Parcours und Sprungelementen könnt ihr euch so richtig austoben, gemeinsam Challenges meistern und spielerisch Teamgeist, Balance und Mut trainieren.</t>
+  </si>
+  <si>
+    <t>Ihr taucht in die Geschichte des Linzer Biers und der Tabakfabrik ein, lernt den Brauprozess kennen und schließt die Tour mit einer gemütlichen Bierverkostung – perfekt für genussorientierte Teams.</t>
+  </si>
+  <si>
+    <t>In Lounge-Atmosphäre spielt ihr virtuelle Golfplätze rund um den Globus, probiert unterschiedliche Challenges aus und könnt euch bei Drinks in Ruhe austauschen – ein lockeres, wetterunabhängiges Teamevent.</t>
+  </si>
+  <si>
+    <t>Mit VR-Brillen und voller Bewegungsfreiheit erlebt ihr packende Teamspiele, löst Aufgaben im virtuellen Raum und stärkt nebenbei Reaktion, Kommunikation und Zusammenspiel.</t>
+  </si>
+  <si>
+    <t>Im Deep Space 8K erlebt ihr spektakuläre Visualisierungen, interaktive Inhalte und Wissensshows – ideal für Teams, die sich für Technologie, Kunst und Zukunftsthemen begeistern.</t>
+  </si>
+  <si>
+    <t>Nach einer kurzen Einschulung schwebt ihr gemeinsam auf Segways durch Stadt, Donauufer oder Natur und erlebt Linz aus einer neuen Perspektive – mit Spaßfaktor und viel Gesprächsstoff fürs Team.</t>
+  </si>
+  <si>
+    <t>Ihr erkundet die Graffiti-Freiluftgalerie im Hafen, erfahrt Hintergründe zu Kunstwerken und Stilrichtungen und könnt im Crashkurs selbst zur Spraydose greifen – kreatives Teamerlebnis mit Erinnerungsfaktor.</t>
+  </si>
+  <si>
+    <t>Mit Guides und Multimediabussen fahrt ihr über das Werksgelände, seht Anlagen aus nächster Nähe und lernt die Reise vom Rohstoff bis zum fertigen Stahl kennen – spannend für technikaffine Teams.</t>
+  </si>
+  <si>
+    <t>In der warmen Wirtshaus-Atmosphäre genießt ihr traditionelle Speisen, regionale Produkte und viel Gemütlichkeit – ideal für gesellige Teamessen und kleinere Feiern.</t>
+  </si>
+  <si>
+    <t>Bei Antipasti, Pasta und Pizza sitzt ihr gemeinsam in entspanntem Ambiente und könnt das Team bei gutem Essen näher zusammenbringen – vom Business-Lunch bis zum Abendessen.</t>
+  </si>
+  <si>
+    <t>Zeitgemäße Wirtshausküche, viele Bier- und Weinoptionen und lebendige Atmosphäre machen das JOSEF zur vielseitigen Location für Teamdinner, Afterwork oder Stammtisch.</t>
+  </si>
+  <si>
+    <t>Zwischen Burgern, Steaks, Bowls und modernen Klassikern findet jede:r etwas – kombiniert mit Drinks und urbanem Ambiente eine gute Wahl für lockere Firmenessen.</t>
+  </si>
+  <si>
+    <t>In uriger Atmosphäre genießt ihr bodenständige Speisen, Jausen und passende Weine – perfekt für ein entspanntes, geselliges Beisammensein abseits des Büroalltags.</t>
+  </si>
+  <si>
+    <t>In Teams tretet ihr beim Eisstockschießen gegeneinander an, feuert euch an, lacht über knappe Entscheidungen und erlebt spielerische Spannung – ein winterliches Teamevent mit Humor.</t>
+  </si>
+  <si>
+    <t>Ob gemeinsamer Kinofilm, Produktpräsentation oder Jahresrückblick – im eigenen Saal mit großer Leinwand, Popcorn und Kinofeeling schafft ihr einen besonderen Rahmen für euer Event.</t>
+  </si>
+  <si>
+    <t>Ihr lernt die Basics der Cocktailkunst, mixt gemeinsam verschiedene Drinks (auch alkoholfrei) und könnt dabei in entspannter Bar-Atmosphäre viel Spaß haben und das Team besser vernetzen.</t>
+  </si>
+  <si>
+    <t>Saftige Steaks, Burger und Beilagen in modernem Ambiente: Hier wird Fleischliebe großgeschrieben und euer Teamdinner zum herzhaften Genusserlebnis.</t>
+  </si>
+  <si>
+    <t>Dry-Aged-Steaks, Holzofenpizza und Craft Beer treffen auf laute, lebendige Stimmung – ideal für Teams, die es modern, locker und etwas lauter mögen.</t>
+  </si>
+  <si>
+    <t>In klassischer Wirtshausatmosphäre genießt ihr Grill- und Pfannengerichte, Bier und regionale Schmankerl – perfekt für unkomplizierte, bodenständige Teamabende.</t>
+  </si>
+  <si>
+    <t>Von Frühstück und Brunch über kreative Speisen bis hin zu Cocktails am Abend – die Stadtliebe bietet einen flexiblen Rahmen für Teamtreffen zu fast jeder Tageszeit.</t>
+  </si>
+  <si>
+    <t>Holzvertäfelung, große Portionen und herzlicher Service sorgen für klassisches Wirtshausgefühl – ideal für Teams, die es ehrlich, bodenständig und ohne Schnickschnack mögen.</t>
+  </si>
+  <si>
+    <t>In entspannter Atmosphäre genießt ihr regionale Küche, Stammtischflair und viel Platz für Gespräche – geeignet für gemütliche Teamessen oder Familienfeiern.</t>
+  </si>
+  <si>
+    <t>Auf der modernen Indoor-E-Kartbahn jagt ihr emissionsfrei über die Strecke, fahrt Qualifying und Rennen und kürt am Ende euer Team-Podium – Adrenalin pur, auch bei Schlechtwetter.</t>
+  </si>
+  <si>
+    <t>Vom Fahrerbriefing über Rennen bis zur Siegerehrung wird euer Event komplett organisiert; dazu kommen Gastronomie und Aufenthaltsbereiche – ideal für große Gruppen und Firmenfeste mit Racing-Faktor.</t>
+  </si>
+  <si>
+    <t>Auf mehreren hundert Quadratmetern warten unterschiedlichste Räume mit Aufgaben zu Reaktion, Geschicklichkeit, Logik und Teamplay – ihr sammelt Punkte, probiert Missionen aus und feuert euch gegenseitig an.</t>
+  </si>
+  <si>
+    <t>Direkt beim Linzer Schloss gelegen – beliebt für Essen &amp; Trinken mit Aussicht. Im Sommer gibt’s bei Schönwetter Spezialitäten vom Holzkohlengrill; innen sowie große Terrassenbereiche für Gruppen.</t>
+  </si>
+  <si>
+    <t>Gasthaus in der Hanuschstraße mit klassischer Wirtshausküche. Mittagsmenü (DI–FR) sowie warme Küche laut Öffnungs-/Küchenzeiten; geeignet für gemütliche Team-Runden.</t>
+  </si>
+  <si>
+    <t>Swingolf als niedrigschwellige Golf-Variante (ein Schläger, ein Ball) – ideal als lockeres Outdoor-Team-Event. Tageskarte gilt für Swingolf &amp; Discgolf; gespielt wird typischerweise mehrere Stunden (18 Bahnen).</t>
+  </si>
+  <si>
+    <t>Klassischer Treffpunkt für Essen &amp; Bier in zentraler Lage. Laut Betreiber: 365 Tage geöffnet, Küche durchgehend bis 21:30 – dadurch planbar für Team-Abende und größere Runden (Reservierung empfohlen).</t>
+  </si>
+  <si>
+    <t>Kombination aus Bar/Restaurant und Spiele-Location (Tabletop &amp; Videogames). Eignet sich für informelle Team-Events: essen, trinken, zocken – ohne großen Organisationsaufwand.</t>
+  </si>
+  <si>
+    <t>Fokus klar auf Ripperl (klassisch, modern interpretiert, auch als Burger/Wrap etc.). Laut Tourismuslisting gibt’s zusätzlich einen separaten Bereich („Ripperlhimmel“) für Gruppen/Feiern – dadurch sehr team-event-tauglich.</t>
+  </si>
+  <si>
+    <t>Das RAITEC Kellerstüberl wird zur kleinen Casino-Nacht: Poker-Setup aufbauen, Chips verteilen, Regeln kurz erklären (Texas Hold’em geht immer) – und schon läuft ein entspannter Abend, bei dem Strategie, Bluffs und viel Gelächter im Vordergrund stehen. Perfekt für Teams, die lieber in kleiner Runde zusammensitzen, nebenbei reden und trotzdem ein „Event-Gefühl“ haben. Optional könnt ihr eine Mini-Siegerehrung machen (z. B. Süßigkeiten, kleines Gadget, Wanderpokal).</t>
+  </si>
+  <si>
+    <t>Unkomplizierter geht’s kaum: Nach der Arbeit runter ins Kellerstüberl, ein (oder zwei) Bierchen aufmachen und einfach den Kopf auslüften. Ohne Programm, ohne Druck – dafür mit Raum für echte Gespräche, gemeinsames Lachen und das berühmte „Wie war dein Tag wirklich?“. Ideal als Afterwork-Format, um neue Kolleg:innen einzubinden, Themen informell zu klären und den Team-Zusammenhalt zu stärken. Snacks, Musik im Hintergrund oder eine kleine Runde Kartenspiele machen’s noch gemütlicher.</t>
+  </si>
+  <si>
+    <t>Die Chill-Out-Zone ist das Gegenprogramm zum Meeting-Marathon: kurz raus aus dem Kopf, rein in den Feierabendmodus. Ob draußen sitzen, etwas trinken, ein bisschen (leise) Musik oder einfach nur plaudern – hier entsteht Teamgefühl ganz nebenbei, weil niemand „performen“ muss. Besonders gut als lockerer Wochenteiler oder zum Start ins Wochenende: 30–60 Minuten entspannen, gemeinsam abschalten, und danach gehen alle mit besserer Laune nach Hause.</t>
+  </si>
+  <si>
+    <t>Wenn’s mal ein bisschen mehr sein darf: Büro auf „Party-Modus“ schalten – Musik an, Drinks kaltstellen, Snacks bereitstellen und die Arbeitswoche mit einer kleinen Feier ausklingen lassen. Das Format ist super flexibel: von gemütlichem Get-together bis „wir tanzen wirklich“. Mit ein paar einfachen Extras wird’s gleich eventiger (Playlist-Wunschbox, Mini-Quiz, Fotospot, Themenabend). Perfekt für Teamerfolge, Geburtstage, Projektabschlüsse oder einfach als moraleboostender Klassiker.</t>
+  </si>
+  <si>
+    <t>Reine Spielgebühr ca. 25–30 € p.P. (je nach Teamgröße); bei mehreren Räumen gleichzeitig oft Rabatte auf Anfrage.</t>
+  </si>
+  <si>
+    <t>Pakete (z.B. 3 Spiele + Getränk) liegen bei ca. 22 €; Exklusivmiete der Arena für Firmenfeiern möglich.</t>
+  </si>
+  <si>
+    <t>Preis sinkt bei voller Belegung (6 Pers.) auf ca. 22 € p.P.; reine Spielkosten, keine Gastronomie vor Ort.</t>
+  </si>
+  <si>
+    <t>Premium-Räume liegen bei ca. 30–35 € p.P.; spezielle Firmen-Challenge-Modi für große Gruppen buchbar.</t>
+  </si>
+  <si>
+    <t>Reine Bahnmiete ist günstig (geteilt durch Spieler); beliebtes "Eat &amp; Bowl"-Paket (Burger + Bowling) liegt bei ca. 30–40 € p.P.</t>
+  </si>
+  <si>
+    <t>Business-Pakete (Eintritt, Socken, Getränk, Snack) starten ab ca. 24 €; Catering für danach zubuchbar.</t>
+  </si>
+  <si>
+    <t>Basis-Führung inkl. Kostprobe ca. 16–19 €; mit ausgiebiger Jause/Verkostung eher 25–30 € p.P.</t>
+  </si>
+  <si>
+    <t>Box-Miete wird durch Spieler geteilt (günstig); Event-Pakete inkl. Drinks &amp; Snacks starten meist ab 25 € p.P.</t>
+  </si>
+  <si>
+    <t>Spielsession kostet ca. 30–40 € p.P.; Lounge für Feiern kann exklusiv dazu gemietet werden.</t>
+  </si>
+  <si>
+    <t>Gruppeneintritt + Highlightführung ca. 15 € p.P.; Eventräume für Catering kosten extra Miete.</t>
+  </si>
+  <si>
+    <t>Fixpreis pro Person für Tour &amp; Guide (ca. 79 €); kaum Gruppenrabatt, da hohe Equipmentkosten.</t>
+  </si>
+  <si>
+    <t>Nur Führung ca. 15 €; das volle Paket "Walk &amp; Spray" (Workshop) kommt auf ca. 35 € p.P.</t>
+  </si>
+  <si>
+    <t>Werkstour inkl. Bustransfer ca. 22 €; Mittagessen in der Kantine oder Catering ist extra zu kalkulieren.</t>
+  </si>
+  <si>
+    <t>Reiner Verzehrwert; für ein 3-Gänge-Menü inkl. Getränke solltet ihr mit ca. 40–50 € p.P. rechnen.</t>
+  </si>
+  <si>
+    <t>Pizza/Pasta ist günstiger (~25 € inkl. Drink); bei Fleisch/Fisch und Wein eher 40–50 € p.P.</t>
+  </si>
+  <si>
+    <t>À la carte Verzehr typischerweise 30–40 €; Buffet-Optionen für große geschlossene Gruppen möglich.</t>
+  </si>
+  <si>
+    <t>Gehobenes Preisniveau; für Steaks/Burger plus Cocktails liegt man schnell bei 50 €+ p.P.</t>
+  </si>
+  <si>
+    <t>Typischer Heurigen-Konsum oder "Reindl-Essen" kommt auf ca. 35–45 € inkl. Weinbegleitung.</t>
+  </si>
+  <si>
+    <t>Bahnmiete (geteilt) + Leihstock ca. 10 €; das klassische "Bratl in der Rein" danach kostet ca. 18–20 € p.P.</t>
+  </si>
+  <si>
+    <t>Kinoticket + Popcorn/Drink-Menü ca. 20–25 €; Saalmiete variiert je nach Uhrzeit/Film stark.</t>
+  </si>
+  <si>
+    <t>Fixpreis für den Workshop (inkl. Mixen &amp; Trinken der Cocktails); keine versteckten Kosten.</t>
+  </si>
+  <si>
+    <t>Premium Steakhouse; für Vorspeise, Steak und guten Wein muss man mit 70–90 € p.P. kalkulieren.</t>
+  </si>
+  <si>
+    <t>Burger/Pizza-Konzern; mit 2-3 Getränken und Hauptspeise landet man meist bei soliden 35–45 €.</t>
+  </si>
+  <si>
+    <t>Bodenständig; Hauptspeise + Bier + Kaffee kommt meist auf faire 30–35 € p.P.</t>
+  </si>
+  <si>
+    <t>Modernes Wirtshaus; Menüs für Gruppen ab ca. 35 €, mit Getränken realistisch 40–50 €.</t>
+  </si>
+  <si>
+    <t>Klassischer Verzehr; 'Bratl'-Essen für Gruppen oft günstiger, à la carte ca. 35 € inkl. Getränke.</t>
+  </si>
+  <si>
+    <t>Uriges Wirtshaus; Schnitzel/Bratl + Getränke liegen im Schnitt bei 30–40 € p.P.</t>
+  </si>
+  <si>
+    <t>Renn-Pakete (Training, Quali, Rennen) starten ab ca. 50 €; Premium-Events mit Siegerehrung bis 80 €.</t>
+  </si>
+  <si>
+    <t>Gruppen-Grand-Prix (inkl. Qualifying &amp; Rennen) kostet ca. 45 € p.P.; Bahn exklusiv mietbar.</t>
+  </si>
+  <si>
+    <t>Preisstaffelung: Ab 13 Personen ca. 34 € p.P., kleinere Gruppen zahlen etwas mehr.</t>
+  </si>
+  <si>
+    <t>Preisniveau grob Wirtshaus/Restaurant; Mittagsmenü-Posts zeigen Hauptspeisen um ca. 13–14 € (Beispielgerichte).</t>
+  </si>
+  <si>
+    <t>Mittagsmenü DI–FR 11:00–14:00 inkl. Tagessuppe um 11,50 € (Stand Menüseite).</t>
+  </si>
+  <si>
+    <t>Tageskarte Erwachsene 14 €; Jugendliche 11 €; Kinder 4,5 €. Ganzjährig von Sonnenauf- bis Sonnenuntergang</t>
+  </si>
+  <si>
+    <t>Preisniveau laut Aggregatoren eher „niedrige Preise“; typische Hauptspeisen bewegen sich grob im mittleren zweistelligen Bereich.</t>
+  </si>
+  <si>
+    <t>Restaurant-/Bar-Preisspanne wird häufig mit ca. 20–30 € pro Person angegeben; variiert je nach Konsum und Eventabend.</t>
+  </si>
+  <si>
+    <t>Preisniveau wird je nach Quelle als mittel (typisch Restaurantbesuch) eingeordnet; ideal, wenn die Runde Ribs liebt.</t>
+  </si>
+  <si>
+    <t>im Prinzip nur Snacks &amp; Getränke (ca. 5–15 € p.P.); optional kleiner „Buy-in“ (z.B. 5 €) für einen Team-Preis.</t>
+  </si>
+  <si>
+    <t>Getränke nach Konsum (meist 3–10 € p.P.), dazu Chips/Pizza auf Selbstkostenbasis – kaum Fixkosten.</t>
+  </si>
+  <si>
+    <t>Quasi gratis: je nach Setup nur Getränke/Snacks (0–10 € p.P.); ideal als spontanes Teamformat ohne Budgetfreigabe.</t>
+  </si>
+  <si>
+    <t>meist „BYO + Snacks“ (5–15 € p.P.) Technik/Musik meist vorhanden, daher wenig Zusatzkosten.</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Kaarstraße 9, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Prinz-Eugen-Straße 22, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Auerspergstraße 15, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Plus-Kauf-Straße 7, 4061 Pasching</t>
+  </si>
+  <si>
+    <t>Im Bäckerfeld 1, 4060 Leonding</t>
+  </si>
+  <si>
+    <t>Peter-Behrens-Platz 1, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Im Bäckerfeld 1/Parkhaus 2. OG, 4060 Leonding</t>
+  </si>
+  <si>
+    <t>Wegscheider Str. 22, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Ars-Electronica-Straße 1, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Hauptpl. 1, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Mural Harbor, Regensburger Str. 2, 4020 Linz</t>
+  </si>
+  <si>
+    <t>voestalpine-Straße, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Garnisonstraße 30, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Hamerlingstraße 46, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Landstraße 49, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Domplatz 3, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Griesmayrstraße 18, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Untere Donaulände 11, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Marienstraße 2a, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Pfarrpl. 13, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Promenade 25, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Angerholzerweg 38, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Landstraße 31, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Harbacher Str. 38, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Eisenhandstraße 43, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Holzstraße 3, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Wegscheider Str. 124, 4060 Leonding</t>
+  </si>
+  <si>
+    <t>Hauptstraße 51-53, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Schlossberg 1, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Hanuschstraße 26, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Freistädter Straße 163, 4040 Linz</t>
+  </si>
+  <si>
+    <t>Landstraße 30, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Blumauerstraße 9, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Landstraße 11, 4020 Linz</t>
+  </si>
+  <si>
+    <t>https://www.mastersofescape.at</t>
+  </si>
+  <si>
+    <t>https://lasertron-linz.at/</t>
+  </si>
+  <si>
+    <t>https://www.exittheroom.at/escape-room-linz</t>
+  </si>
+  <si>
+    <t>https://linz.nowayout-escape.at/de/</t>
+  </si>
+  <si>
+    <t>https://oceanparkpluscity.at/</t>
+  </si>
+  <si>
+    <t>https://jumpdome.at/linz/</t>
+  </si>
+  <si>
+    <t>https://www.linzerbier.at/fuehrungen/</t>
+  </si>
+  <si>
+    <t>https://ruffgolf.eu/at/</t>
+  </si>
+  <si>
+    <t>https://linz.another-world.com/</t>
+  </si>
+  <si>
+    <t>https://ars.electronica.art/center/de/deepspace/</t>
+  </si>
+  <si>
+    <t>https://linzerschweben.at/</t>
+  </si>
+  <si>
+    <t>https://muralharbor.at/tickets/</t>
+  </si>
+  <si>
+    <t>https://www.voestalpine.com/stahlwelt/</t>
+  </si>
+  <si>
+    <t>https://www.stubm.at/</t>
+  </si>
+  <si>
+    <t>https://www.ilteatro.at/</t>
+  </si>
+  <si>
+    <t>https://josef.eu/</t>
+  </si>
+  <si>
+    <t>https://www.pauls-linz.at/</t>
+  </si>
+  <si>
+    <t>https://weinstadl-urfahr.eatbu.com/?lang=de</t>
+  </si>
+  <si>
+    <t>https://www.linzag.at/portal/de/privatkunden/freizeit/eissport/eisstockschiessen</t>
+  </si>
+  <si>
+    <t>https://www.megaplex.at/inhalt/kino-zum-mieten</t>
+  </si>
+  <si>
+    <t>https://www.lennox.at/events/cocktailkurse/</t>
+  </si>
+  <si>
+    <t>https://xn--ngus-koa.at/</t>
+  </si>
+  <si>
+    <t>https://glorious-bastards.at/</t>
+  </si>
+  <si>
+    <t>https://www.bratwurstgloeckerl.at/</t>
+  </si>
+  <si>
+    <t>https://www.stadtliebe.at/</t>
+  </si>
+  <si>
+    <t>https://www.wiazhaus-lehner.at/</t>
+  </si>
+  <si>
+    <t>http://www.gasthaus-eisernehand.at/</t>
+  </si>
+  <si>
+    <t>https://www.rotaxmaxdome.com/linz/</t>
+  </si>
+  <si>
+    <t>https://booosters.at/</t>
+  </si>
+  <si>
+    <t>https://missiongames.at/</t>
+  </si>
+  <si>
+    <t>https://www.donauregion.at/oesterreich-gastronomie/detail/160321/schloss-cafe-linz.html</t>
+  </si>
+  <si>
+    <t>https://zumschiefenapfelbaum.at/</t>
+  </si>
+  <si>
+    <t>https://www.swingolf.at/</t>
+  </si>
+  <si>
+    <t>https://www.klosterhof.at/</t>
+  </si>
+  <si>
+    <t>https://gamedine.at/</t>
+  </si>
+  <si>
+    <t>https://www.jack-the-ripperl.com/linz-landstrasse/</t>
+  </si>
+  <si>
+    <t>Masters of Escape GmbH</t>
+  </si>
+  <si>
+    <t>Lasertron Linz</t>
+  </si>
+  <si>
+    <t>Exit the Room Linz</t>
+  </si>
+  <si>
+    <t>NoWayOut Linz</t>
+  </si>
+  <si>
+    <t>Ocean Park GmbH</t>
+  </si>
+  <si>
+    <t>JUMP DOME Linz GmbH</t>
+  </si>
+  <si>
+    <t>Linzer Bierbrauerei</t>
+  </si>
+  <si>
+    <t>RUFF Indoor Golf</t>
+  </si>
+  <si>
+    <t>Another World VR</t>
+  </si>
+  <si>
+    <t>Ars Electronica Linz</t>
+  </si>
+  <si>
+    <t>Linzer Schweben</t>
+  </si>
+  <si>
+    <t>Verein Mural Harbor</t>
+  </si>
+  <si>
+    <t>voestalpine Stahlwelt</t>
+  </si>
+  <si>
+    <t>Stefan's Stubm</t>
+  </si>
+  <si>
+    <t>Ristorante Il Teatro</t>
+  </si>
+  <si>
+    <t>Josef Gastro GmbH</t>
+  </si>
+  <si>
+    <t>PAULS</t>
+  </si>
+  <si>
+    <t>Weinstadl Urfahr</t>
+  </si>
+  <si>
+    <t>LINZ AG (Parkbad)</t>
+  </si>
+  <si>
+    <t>Hollywood Megaplex</t>
+  </si>
+  <si>
+    <t>Lennox Bar</t>
+  </si>
+  <si>
+    <t>ÄNGUS Downtown</t>
+  </si>
+  <si>
+    <t>Glorious Bastards</t>
+  </si>
+  <si>
+    <t>Bratwurstglöckerl</t>
+  </si>
+  <si>
+    <t>Stadtliebe Linz</t>
+  </si>
+  <si>
+    <t>Wia z'haus Lehner</t>
+  </si>
+  <si>
+    <t>Gasthaus Eiserne Hand</t>
+  </si>
+  <si>
+    <t>Rotax MAX Dome</t>
+  </si>
+  <si>
+    <t>Booosters</t>
+  </si>
+  <si>
+    <t>Mission Games</t>
+  </si>
+  <si>
+    <t>Schloss Café Linz</t>
+  </si>
+  <si>
+    <t>Zum Schiefen Apfelbaum</t>
+  </si>
+  <si>
+    <t>HALL.O Swingolf</t>
+  </si>
+  <si>
+    <t>Stiegl-Klosterhof</t>
+  </si>
+  <si>
+    <t>Game &amp; Dine</t>
+  </si>
+  <si>
     <t>Jack the Ripperl</t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>relax</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>escape-game,teambuidling,puzzle</t>
-  </si>
-  <si>
-    <t>lasertag,action,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>escape-room,rätsel,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>escape-room,horror,rätsel,teambuilding</t>
-  </si>
-  <si>
-    <t>bowling,essen,trinken,fun,indoor,teambuilding</t>
-  </si>
-  <si>
-    <t>trampolinpark,action,sport,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>führung,brauerei,bier,genuss,teambuilding,kultur</t>
-  </si>
-  <si>
-    <t>indoor-golf,sport,fun,teambuilding</t>
-  </si>
-  <si>
-    <t>virtual-reality,gaming,action,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>technik,innovation,kultur,multimedia,indoor</t>
-  </si>
-  <si>
-    <t>segway,outdoor,sightseeing,teambuilding</t>
-  </si>
-  <si>
-    <t>graffiti,streetart,kreativ,führung,teambuilding,outdoor</t>
-  </si>
-  <si>
-    <t>industrie,führung,technik,lernen,teambuilding</t>
-  </si>
-  <si>
-    <t>restaurant,österreichische-küche,essen,gemütlich,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,italienisch,pizza,pasta,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,wirtshaus,bar,österreichische-küche,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,burger,steak,bar,teamevent</t>
-  </si>
-  <si>
-    <t>heuriger,restaurant,wein,österreichische-küche,teamevent</t>
-  </si>
-  <si>
-    <t>eisstockschiessen,winter,sport,teambuilding,outdoor</t>
-  </si>
-  <si>
-    <t>kino,eventlocation,präsentation,teamevent,indoor</t>
-  </si>
-  <si>
-    <t>cocktailkurs,bar,mixology,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>restaurant,steak,grill,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,steak,burger,pizza,craft-beer,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,wirtshaus,grill,österreichische-küche,teamevent</t>
-  </si>
-  <si>
-    <t>restaurant,bar,brunch,modern,teamevent</t>
-  </si>
-  <si>
-    <t>wirtshaus,österreichische-küche,traditionell,teamevent</t>
-  </si>
-  <si>
-    <t>gasthaus,österreichische-küche,traditionell,teamevent</t>
-  </si>
-  <si>
-    <t>e-kart,kartfahren,action,indoor,teambuilding</t>
-  </si>
-  <si>
-    <t>kartfahren,action,eventlocation,teambuilding,gastro</t>
-  </si>
-  <si>
-    <t>actiongame,rätsel,geschicklichkeit,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>OOE</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1498050108023-c5249f4df085?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1521017432531-fbd92d768814?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1529692236671-f1f6cf9683ba?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1535131749006-b7f58c99034b?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1527168027773-0cc890bce99a?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1542751371-adc38448a05e?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1550547660-d9450f859349?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</t>
-  </si>
-  <si>
-    <t>all_year</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>Teamstärkende Rätsel, Spannung, Kooperation, unvergesslicher Spaß.</t>
-  </si>
-  <si>
-    <t>Actionreicher Lasertag-Spaß für Teams mit Strategie, Adrenalin und viel Bewegung.</t>
-  </si>
-  <si>
-    <t>Klassische Escape Rooms mit kniffligen Rätseln und 60 Minuten Zeitdruck.</t>
-  </si>
-  <si>
-    <t>Filmreife Escape-Abenteuer mit starken Storys und viel Adrenalin.</t>
-  </si>
-  <si>
-    <t>Bowling, Games und Gastronomie im großen Family-Entertainment-Center.</t>
-  </si>
-  <si>
-    <t>Großer Trampolin- und Funpark für körperliche Action und Auspowern im Team.</t>
-  </si>
-  <si>
-    <t>Geführter Rundgang durch die Linzer Brauerei mit Blick hinter die Kulissen und Verkostung.</t>
-  </si>
-  <si>
-    <t>Modernes Indoor-Golf mit Simulatoren für Anfänger:innen und Pros.</t>
-  </si>
-  <si>
-    <t>Kooperative VR-Missionen auf großer Spielfläche – gemeinsam in die virtuelle Welt eintauchen.</t>
-  </si>
-  <si>
-    <t>Immersive 8K-Projektionen auf Wand und Boden – digitale Welten in Riesendimension.</t>
-  </si>
-  <si>
-    <t>Geführte Segway-Tour durch Linz und Umgebung – entspannt gleiten statt gehen.</t>
-  </si>
-  <si>
-    <t>Graffiti-Rundgang im Linzer Hafen mit Möglichkeit zum selbst Sprayen.</t>
-  </si>
-  <si>
-    <t>Werksführung mit Blick in die moderne Stahlproduktion und den größten Industriestandort Österreichs.</t>
-  </si>
-  <si>
-    <t>Österreichische Küche in gemütlicher Stubn-Atmosphäre.</t>
-  </si>
-  <si>
-    <t>Italienisches Restaurant mit Pizza, Pasta und mediterranem Flair.</t>
-  </si>
-  <si>
-    <t>Modernes Wirtshaus mit großer Speise- und Getränkekarte im Zentrum von Linz.</t>
-  </si>
-  <si>
-    <t>Stylishes Restaurant mit kreativer Küche und entspannter Bar-Atmosphäre.</t>
-  </si>
-  <si>
-    <t>Gemütlicher Weinstadl mit regionaler Küche und schöner Weinauswahl.</t>
-  </si>
-  <si>
-    <t>„Bratlschießen“ (Eisstockschießen) als lockerer Teamwettbewerb auf dem Eis.</t>
-  </si>
-  <si>
-    <t>Exklusiv angemieteter Kinosaal für Film, Präsentation oder Firmenfeier.</t>
-  </si>
-  <si>
-    <t>Geführter Cocktailkurs mit Profibarkeepern – shaken, rühren, verkosten.</t>
-  </si>
-  <si>
-    <t>Steak- und Grillrestaurant im Zentrum – Fokus auf hochwertigem Fleisch.</t>
-  </si>
-  <si>
-    <t>Stylishes Meat-&amp;-Pizza-Konzept mit offener Küche und Industrial-Charme.</t>
-  </si>
-  <si>
-    <t>Traditionsgasthaus mit Fokus auf Bratwürste und deftige Hausmannskost.</t>
-  </si>
-  <si>
-    <t>Trendige Mischung aus Restaurant, Bar und Café mitten in Linz.</t>
-  </si>
-  <si>
-    <t>Traditionelles Wirtshaus mit regionaler Küche und viel Gemütlichkeit.</t>
-  </si>
-  <si>
-    <t>Gutbürgerliches Gasthaus mit klassischen Speisen und saisonalen Gerichten.</t>
-  </si>
-  <si>
-    <t>E-Kart-Action auf zwei Ebenen mit Augmented Reality Elementen.</t>
-  </si>
-  <si>
-    <t>Kart-Racing + Gastro für bis zu 100 Personen, „Rundum-Service“ für Firmenfeiern.</t>
-  </si>
-  <si>
-    <t>Indoor-Actionspiel mit vielen Missionräumen, in denen Geschick und Teamwork zählen.</t>
-  </si>
-  <si>
-    <t>Restaurant am Linzer Schloss mit Terrasse und Blick über Linz.</t>
-  </si>
-  <si>
-    <t>Traditionsgasthaus in Linz mit warmer Küche und Mittagsmenü.</t>
-  </si>
-  <si>
-    <t>Outdoor-Swingolf/Discgolf-Anlage in Linz-Urfahr – unkompliziert, gruppentauglich.</t>
-  </si>
-  <si>
-    <t>Braurestaurant in der Landstraße mit Biergarten und durchgehenden Küchenzeiten.</t>
-  </si>
-  <si>
-    <t>Gaming-Bar mit Speisen &amp; Drinks – gut für lockere Team-Abende.</t>
-  </si>
-  <si>
-    <t>Ripperl-Spezialist direkt auf der Landstraße – auch mit Bereich für Feiern/Events.</t>
-  </si>
-  <si>
-    <t>Adrenalin, Teamgeist und Rätselspaß: In dieser Escape Room Challenge wachst Ihr als Team zusammen, kommuniziert besser und feiert gemeinsam den Erfolg.</t>
-  </si>
-  <si>
-    <t>In der futuristischen Lasertag-Arena tretet ihr in Teams gegeneinander an, trainiert Taktik, Reaktion und Kommunikation – perfekt, um Kolleg:innen spielerisch zusammenzuschweißen.</t>
-  </si>
-  <si>
-    <t>Ihr werdet gemeinsam in einen Themenraum „eingesperrt“ und müsst innerhalb von 60 Minuten Codes knacken, Hinweise suchen, diese kombinieren und clever um die Ecke denken. Jede Spur kann wichtig sein – von versteckten Botschaften bis zu Mechanismen, die erst im Team Sinn ergeben. Kommunikation, Rollenverteilung und ein kühler Kopf bringen euch voran, während die Zeit gnadenlos läuft. Schafft ihr den Ausweg, wartet das perfekte Erfolgserlebnis für kleine Gruppen mit Grübelspaß.</t>
-  </si>
-  <si>
-    <t>Aufwendig gestaltete Themenräume sorgen für Gänsehaut, Spannung und Teamwork – von magischen bis schaurigen Szenarien arbeitet ihr euch gemeinsam durch Rätsel, Effekte und Überraschungen.</t>
-  </si>
-  <si>
-    <t>Zwischen Bowlingbahnen, Billard und Arcade-Games stärkt ihr euch mit Drinks und Speisen – lockere Atmosphäre für entspannte Firmenfeiern, Afterwork-Events und größere Gruppen.</t>
-  </si>
-  <si>
-    <t>Auf zahlreichen Trampolinen, Parcours und Sprungelementen könnt ihr euch so richtig austoben, gemeinsam Challenges meistern und spielerisch Teamgeist, Balance und Mut trainieren.</t>
-  </si>
-  <si>
-    <t>Ihr taucht in die Geschichte des Linzer Biers und der Tabakfabrik ein, lernt den Brauprozess kennen und schließt die Tour mit einer gemütlichen Bierverkostung – perfekt für genussorientierte Teams.</t>
-  </si>
-  <si>
-    <t>In Lounge-Atmosphäre spielt ihr virtuelle Golfplätze rund um den Globus, probiert unterschiedliche Challenges aus und könnt euch bei Drinks in Ruhe austauschen – ein lockeres, wetterunabhängiges Teamevent.</t>
-  </si>
-  <si>
-    <t>Mit VR-Brillen und voller Bewegungsfreiheit erlebt ihr packende Teamspiele, löst Aufgaben im virtuellen Raum und stärkt nebenbei Reaktion, Kommunikation und Zusammenspiel.</t>
-  </si>
-  <si>
-    <t>Im Deep Space 8K erlebt ihr spektakuläre Visualisierungen, interaktive Inhalte und Wissensshows – ideal für Teams, die sich für Technologie, Kunst und Zukunftsthemen begeistern.</t>
-  </si>
-  <si>
-    <t>Nach einer kurzen Einschulung schwebt ihr gemeinsam auf Segways durch Stadt, Donauufer oder Natur und erlebt Linz aus einer neuen Perspektive – mit Spaßfaktor und viel Gesprächsstoff fürs Team.</t>
-  </si>
-  <si>
-    <t>Ihr erkundet die Graffiti-Freiluftgalerie im Hafen, erfahrt Hintergründe zu Kunstwerken und Stilrichtungen und könnt im Crashkurs selbst zur Spraydose greifen – kreatives Teamerlebnis mit Erinnerungsfaktor.</t>
-  </si>
-  <si>
-    <t>Mit Guides und Multimediabussen fahrt ihr über das Werksgelände, seht Anlagen aus nächster Nähe und lernt die Reise vom Rohstoff bis zum fertigen Stahl kennen – spannend für technikaffine Teams.</t>
-  </si>
-  <si>
-    <t>In der warmen Wirtshaus-Atmosphäre genießt ihr traditionelle Speisen, regionale Produkte und viel Gemütlichkeit – ideal für gesellige Teamessen und kleinere Feiern.</t>
-  </si>
-  <si>
-    <t>Bei Antipasti, Pasta und Pizza sitzt ihr gemeinsam in entspanntem Ambiente und könnt das Team bei gutem Essen näher zusammenbringen – vom Business-Lunch bis zum Abendessen.</t>
-  </si>
-  <si>
-    <t>Zeitgemäße Wirtshausküche, viele Bier- und Weinoptionen und lebendige Atmosphäre machen das JOSEF zur vielseitigen Location für Teamdinner, Afterwork oder Stammtisch.</t>
-  </si>
-  <si>
-    <t>Zwischen Burgern, Steaks, Bowls und modernen Klassikern findet jede:r etwas – kombiniert mit Drinks und urbanem Ambiente eine gute Wahl für lockere Firmenessen.</t>
-  </si>
-  <si>
-    <t>In uriger Atmosphäre genießt ihr bodenständige Speisen, Jausen und passende Weine – perfekt für ein entspanntes, geselliges Beisammensein abseits des Büroalltags.</t>
-  </si>
-  <si>
-    <t>In Teams tretet ihr beim Eisstockschießen gegeneinander an, feuert euch an, lacht über knappe Entscheidungen und erlebt spielerische Spannung – ein winterliches Teamevent mit Humor.</t>
-  </si>
-  <si>
-    <t>Ob gemeinsamer Kinofilm, Produktpräsentation oder Jahresrückblick – im eigenen Saal mit großer Leinwand, Popcorn und Kinofeeling schafft ihr einen besonderen Rahmen für euer Event.</t>
-  </si>
-  <si>
-    <t>Ihr lernt die Basics der Cocktailkunst, mixt gemeinsam verschiedene Drinks (auch alkoholfrei) und könnt dabei in entspannter Bar-Atmosphäre viel Spaß haben und das Team besser vernetzen.</t>
-  </si>
-  <si>
-    <t>Saftige Steaks, Burger und Beilagen in modernem Ambiente: Hier wird Fleischliebe großgeschrieben und euer Teamdinner zum herzhaften Genusserlebnis.</t>
-  </si>
-  <si>
-    <t>Dry-Aged-Steaks, Holzofenpizza und Craft Beer treffen auf laute, lebendige Stimmung – ideal für Teams, die es modern, locker und etwas lauter mögen.</t>
-  </si>
-  <si>
-    <t>In klassischer Wirtshausatmosphäre genießt ihr Grill- und Pfannengerichte, Bier und regionale Schmankerl – perfekt für unkomplizierte, bodenständige Teamabende.</t>
-  </si>
-  <si>
-    <t>Von Frühstück und Brunch über kreative Speisen bis hin zu Cocktails am Abend – die Stadtliebe bietet einen flexiblen Rahmen für Teamtreffen zu fast jeder Tageszeit.</t>
-  </si>
-  <si>
-    <t>Holzvertäfelung, große Portionen und herzlicher Service sorgen für klassisches Wirtshausgefühl – ideal für Teams, die es ehrlich, bodenständig und ohne Schnickschnack mögen.</t>
-  </si>
-  <si>
-    <t>In entspannter Atmosphäre genießt ihr regionale Küche, Stammtischflair und viel Platz für Gespräche – geeignet für gemütliche Teamessen oder Familienfeiern.</t>
-  </si>
-  <si>
-    <t>Auf der modernen Indoor-E-Kartbahn jagt ihr emissionsfrei über die Strecke, fahrt Qualifying und Rennen und kürt am Ende euer Team-Podium – Adrenalin pur, auch bei Schlechtwetter.</t>
-  </si>
-  <si>
-    <t>Vom Fahrerbriefing über Rennen bis zur Siegerehrung wird euer Event komplett organisiert; dazu kommen Gastronomie und Aufenthaltsbereiche – ideal für große Gruppen und Firmenfeste mit Racing-Faktor.</t>
-  </si>
-  <si>
-    <t>Auf mehreren hundert Quadratmetern warten unterschiedlichste Räume mit Aufgaben zu Reaktion, Geschicklichkeit, Logik und Teamplay – ihr sammelt Punkte, probiert Missionen aus und feuert euch gegenseitig an.</t>
-  </si>
-  <si>
-    <t>Direkt beim Linzer Schloss gelegen – beliebt für Essen &amp; Trinken mit Aussicht. Im Sommer gibt’s bei Schönwetter Spezialitäten vom Holzkohlengrill; innen sowie große Terrassenbereiche für Gruppen.</t>
-  </si>
-  <si>
-    <t>Gasthaus in der Hanuschstraße mit klassischer Wirtshausküche. Mittagsmenü (DI–FR) sowie warme Küche laut Öffnungs-/Küchenzeiten; geeignet für gemütliche Team-Runden.</t>
-  </si>
-  <si>
-    <t>Swingolf als niedrigschwellige Golf-Variante (ein Schläger, ein Ball) – ideal als lockeres Outdoor-Team-Event. Tageskarte gilt für Swingolf &amp; Discgolf; gespielt wird typischerweise mehrere Stunden (18 Bahnen).</t>
-  </si>
-  <si>
-    <t>Klassischer Treffpunkt für Essen &amp; Bier in zentraler Lage. Laut Betreiber: 365 Tage geöffnet, Küche durchgehend bis 21:30 – dadurch planbar für Team-Abende und größere Runden (Reservierung empfohlen).</t>
-  </si>
-  <si>
-    <t>Kombination aus Bar/Restaurant und Spiele-Location (Tabletop &amp; Videogames). Eignet sich für informelle Team-Events: essen, trinken, zocken – ohne großen Organisationsaufwand.</t>
-  </si>
-  <si>
-    <t>Fokus klar auf Ripperl (klassisch, modern interpretiert, auch als Burger/Wrap etc.). Laut Tourismuslisting gibt’s zusätzlich einen separaten Bereich („Ripperlhimmel“) für Gruppen/Feiern – dadurch sehr team-event-tauglich.</t>
-  </si>
-  <si>
-    <t>Reine Spielgebühr ca. 25–30 € p.P. (je nach Teamgröße); bei mehreren Räumen gleichzeitig oft Rabatte auf Anfrage.</t>
-  </si>
-  <si>
-    <t>Pakete (z.B. 3 Spiele + Getränk) liegen bei ca. 22 €; Exklusivmiete der Arena für Firmenfeiern möglich.</t>
-  </si>
-  <si>
-    <t>Preis sinkt bei voller Belegung (6 Pers.) auf ca. 22 € p.P.; reine Spielkosten, keine Gastronomie vor Ort.</t>
-  </si>
-  <si>
-    <t>Premium-Räume liegen bei ca. 30–35 € p.P.; spezielle Firmen-Challenge-Modi für große Gruppen buchbar.</t>
-  </si>
-  <si>
-    <t>Reine Bahnmiete ist günstig (geteilt durch Spieler); beliebtes "Eat &amp; Bowl"-Paket (Burger + Bowling) liegt bei ca. 30–40 € p.P.</t>
-  </si>
-  <si>
-    <t>Business-Pakete (Eintritt, Socken, Getränk, Snack) starten ab ca. 24 €; Catering für danach zubuchbar.</t>
-  </si>
-  <si>
-    <t>Basis-Führung inkl. Kostprobe ca. 16–19 €; mit ausgiebiger Jause/Verkostung eher 25–30 € p.P.</t>
-  </si>
-  <si>
-    <t>Box-Miete wird durch Spieler geteilt (günstig); Event-Pakete inkl. Drinks &amp; Snacks starten meist ab 25 € p.P.</t>
-  </si>
-  <si>
-    <t>Spielsession kostet ca. 30–40 € p.P.; Lounge für Feiern kann exklusiv dazu gemietet werden.</t>
-  </si>
-  <si>
-    <t>Gruppeneintritt + Highlightführung ca. 15 € p.P.; Eventräume für Catering kosten extra Miete.</t>
-  </si>
-  <si>
-    <t>Fixpreis pro Person für Tour &amp; Guide (ca. 79 €); kaum Gruppenrabatt, da hohe Equipmentkosten.</t>
-  </si>
-  <si>
-    <t>Nur Führung ca. 15 €; das volle Paket "Walk &amp; Spray" (Workshop) kommt auf ca. 35 € p.P.</t>
-  </si>
-  <si>
-    <t>Werkstour inkl. Bustransfer ca. 22 €; Mittagessen in der Kantine oder Catering ist extra zu kalkulieren.</t>
-  </si>
-  <si>
-    <t>Reiner Verzehrwert; für ein 3-Gänge-Menü inkl. Getränke solltet ihr mit ca. 40–50 € p.P. rechnen.</t>
-  </si>
-  <si>
-    <t>Pizza/Pasta ist günstiger (~25 € inkl. Drink); bei Fleisch/Fisch und Wein eher 40–50 € p.P.</t>
-  </si>
-  <si>
-    <t>À la carte Verzehr typischerweise 30–40 €; Buffet-Optionen für große geschlossene Gruppen möglich.</t>
-  </si>
-  <si>
-    <t>Gehobenes Preisniveau; für Steaks/Burger plus Cocktails liegt man schnell bei 50 €+ p.P.</t>
-  </si>
-  <si>
-    <t>Typischer Heurigen-Konsum oder "Reindl-Essen" kommt auf ca. 35–45 € inkl. Weinbegleitung.</t>
-  </si>
-  <si>
-    <t>Bahnmiete (geteilt) + Leihstock ca. 10 €; das klassische "Bratl in der Rein" danach kostet ca. 18–20 € p.P.</t>
-  </si>
-  <si>
-    <t>Kinoticket + Popcorn/Drink-Menü ca. 20–25 €; Saalmiete variiert je nach Uhrzeit/Film stark.</t>
-  </si>
-  <si>
-    <t>Fixpreis für den Workshop (inkl. Mixen &amp; Trinken der Cocktails); keine versteckten Kosten.</t>
-  </si>
-  <si>
-    <t>Premium Steakhouse; für Vorspeise, Steak und guten Wein muss man mit 70–90 € p.P. kalkulieren.</t>
-  </si>
-  <si>
-    <t>Burger/Pizza-Konzern; mit 2-3 Getränken und Hauptspeise landet man meist bei soliden 35–45 €.</t>
-  </si>
-  <si>
-    <t>Bodenständig; Hauptspeise + Bier + Kaffee kommt meist auf faire 30–35 € p.P.</t>
-  </si>
-  <si>
-    <t>Modernes Wirtshaus; Menüs für Gruppen ab ca. 35 €, mit Getränken realistisch 40–50 €.</t>
-  </si>
-  <si>
-    <t>Klassischer Verzehr; 'Bratl'-Essen für Gruppen oft günstiger, à la carte ca. 35 € inkl. Getränke.</t>
-  </si>
-  <si>
-    <t>Uriges Wirtshaus; Schnitzel/Bratl + Getränke liegen im Schnitt bei 30–40 € p.P.</t>
-  </si>
-  <si>
-    <t>Renn-Pakete (Training, Quali, Rennen) starten ab ca. 50 €; Premium-Events mit Siegerehrung bis 80 €.</t>
-  </si>
-  <si>
-    <t>Gruppen-Grand-Prix (inkl. Qualifying &amp; Rennen) kostet ca. 45 € p.P.; Bahn exklusiv mietbar.</t>
-  </si>
-  <si>
-    <t>Preisstaffelung: Ab 13 Personen ca. 34 € p.P., kleinere Gruppen zahlen etwas mehr.</t>
-  </si>
-  <si>
-    <t>Preisniveau grob Wirtshaus/Restaurant; Mittagsmenü-Posts zeigen Hauptspeisen um ca. 13–14 € (Beispielgerichte).</t>
-  </si>
-  <si>
-    <t>Mittagsmenü DI–FR 11:00–14:00 inkl. Tagessuppe um 11,50 € (Stand Menüseite).</t>
-  </si>
-  <si>
-    <t>Tageskarte Erwachsene 14 €; Jugendliche 11 €; Kinder 4,5 €. Ganzjährig von Sonnenauf- bis Sonnenuntergang</t>
-  </si>
-  <si>
-    <t>Preisniveau laut Aggregatoren eher „niedrige Preise“; typische Hauptspeisen bewegen sich grob im mittleren zweistelligen Bereich.</t>
-  </si>
-  <si>
-    <t>Restaurant-/Bar-Preisspanne wird häufig mit ca. 20–30 € pro Person angegeben; variiert je nach Konsum und Eventabend.</t>
-  </si>
-  <si>
-    <t>Preisniveau wird je nach Quelle als mittel (typisch Restaurantbesuch) eingeordnet; ideal, wenn die Runde Ribs liebt.</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Kaarstraße 9, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Prinz-Eugen-Straße 22, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Auerspergstraße 15, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Plus-Kauf-Straße 7, 4061 Pasching</t>
-  </si>
-  <si>
-    <t>Im Bäckerfeld 1, 4060 Leonding</t>
-  </si>
-  <si>
-    <t>Peter-Behrens-Platz 1, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Im Bäckerfeld 1/Parkhaus 2. OG, 4060 Leonding</t>
-  </si>
-  <si>
-    <t>Wegscheider Str. 22, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Ars-Electronica-Straße 1, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Hauptpl. 1, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Mural Harbor, Regensburger Str. 2, 4020 Linz</t>
-  </si>
-  <si>
-    <t>voestalpine-Straße, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Garnisonstraße 30, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Hamerlingstraße 46, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Landstraße 49, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Domplatz 3, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Griesmayrstraße 18, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Untere Donaulände 11, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Marienstraße 2a, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Pfarrpl. 13, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Promenade 25, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Angerholzerweg 38, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Landstraße 31, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Harbacher Str. 38, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Eisenhandstraße 43, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Holzstraße 3, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Wegscheider Str. 124, 4060 Leonding</t>
-  </si>
-  <si>
-    <t>Hauptstraße 51-53, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Schlossberg 1, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Hanuschstraße 26, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Freistädter Straße 163, 4040 Linz</t>
-  </si>
-  <si>
-    <t>Landstraße 30, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Blumauerstraße 9, 4020 Linz</t>
-  </si>
-  <si>
-    <t>Landstraße 11, 4020 Linz</t>
-  </si>
-  <si>
-    <t>https://www.mastersofescape.at</t>
-  </si>
-  <si>
-    <t>https://lasertron-linz.at/</t>
-  </si>
-  <si>
-    <t>https://www.exittheroom.at/escape-room-linz</t>
-  </si>
-  <si>
-    <t>https://linz.nowayout-escape.at/de/</t>
-  </si>
-  <si>
-    <t>https://oceanparkpluscity.at/</t>
-  </si>
-  <si>
-    <t>https://jumpdome.at/linz/</t>
-  </si>
-  <si>
-    <t>https://www.linzerbier.at/fuehrungen/</t>
-  </si>
-  <si>
-    <t>https://ruffgolf.eu/at/</t>
-  </si>
-  <si>
-    <t>https://linz.another-world.com/</t>
-  </si>
-  <si>
-    <t>https://ars.electronica.art/center/de/deepspace/</t>
-  </si>
-  <si>
-    <t>https://linzerschweben.at/</t>
-  </si>
-  <si>
-    <t>https://muralharbor.at/tickets/</t>
-  </si>
-  <si>
-    <t>https://www.voestalpine.com/stahlwelt/</t>
-  </si>
-  <si>
-    <t>https://www.stubm.at/</t>
-  </si>
-  <si>
-    <t>https://www.ilteatro.at/</t>
-  </si>
-  <si>
-    <t>https://josef.eu/</t>
-  </si>
-  <si>
-    <t>https://www.pauls-linz.at/</t>
-  </si>
-  <si>
-    <t>https://weinstadl-urfahr.eatbu.com/?lang=de</t>
-  </si>
-  <si>
-    <t>https://www.linzag.at/portal/de/privatkunden/freizeit/eissport/eisstockschiessen</t>
-  </si>
-  <si>
-    <t>https://www.megaplex.at/inhalt/kino-zum-mieten</t>
-  </si>
-  <si>
-    <t>https://www.lennox.at/events/cocktailkurse/</t>
-  </si>
-  <si>
-    <t>https://xn--ngus-koa.at/</t>
-  </si>
-  <si>
-    <t>https://glorious-bastards.at/</t>
-  </si>
-  <si>
-    <t>https://www.bratwurstgloeckerl.at/</t>
-  </si>
-  <si>
-    <t>https://www.stadtliebe.at/</t>
-  </si>
-  <si>
-    <t>https://www.wiazhaus-lehner.at/</t>
-  </si>
-  <si>
-    <t>http://www.gasthaus-eisernehand.at/</t>
-  </si>
-  <si>
-    <t>https://www.rotaxmaxdome.com/linz/</t>
-  </si>
-  <si>
-    <t>https://booosters.at/</t>
-  </si>
-  <si>
-    <t>https://missiongames.at/</t>
-  </si>
-  <si>
-    <t>https://www.donauregion.at/oesterreich-gastronomie/detail/160321/schloss-cafe-linz.html</t>
-  </si>
-  <si>
-    <t>https://zumschiefenapfelbaum.at/</t>
-  </si>
-  <si>
-    <t>https://www.swingolf.at/</t>
-  </si>
-  <si>
-    <t>https://www.klosterhof.at/</t>
-  </si>
-  <si>
-    <t>https://gamedine.at/</t>
-  </si>
-  <si>
-    <t>https://www.jack-the-ripperl.com/linz-landstrasse/</t>
-  </si>
-  <si>
-    <t>Masters of Escape GmbH</t>
-  </si>
-  <si>
-    <t>Lasertron Linz</t>
-  </si>
-  <si>
-    <t>Exit the Room Linz</t>
-  </si>
-  <si>
-    <t>NoWayOut Linz</t>
-  </si>
-  <si>
-    <t>Ocean Park GmbH</t>
-  </si>
-  <si>
-    <t>JUMP DOME Linz GmbH</t>
-  </si>
-  <si>
-    <t>Linzer Bierbrauerei</t>
-  </si>
-  <si>
-    <t>RUFF Indoor Golf</t>
-  </si>
-  <si>
-    <t>Another World VR</t>
-  </si>
-  <si>
-    <t>Ars Electronica Linz</t>
-  </si>
-  <si>
-    <t>Linzer Schweben</t>
-  </si>
-  <si>
-    <t>Verein Mural Harbor</t>
-  </si>
-  <si>
-    <t>voestalpine Stahlwelt</t>
-  </si>
-  <si>
-    <t>Stefan's Stubm</t>
-  </si>
-  <si>
-    <t>Ristorante Il Teatro</t>
-  </si>
-  <si>
-    <t>Josef Gastro GmbH</t>
-  </si>
-  <si>
-    <t>PAULS</t>
-  </si>
-  <si>
-    <t>Weinstadl Urfahr</t>
-  </si>
-  <si>
-    <t>LINZ AG (Parkbad)</t>
-  </si>
-  <si>
-    <t>Hollywood Megaplex</t>
-  </si>
-  <si>
-    <t>Lennox Bar</t>
-  </si>
-  <si>
-    <t>ÄNGUS Downtown</t>
-  </si>
-  <si>
-    <t>Glorious Bastards</t>
-  </si>
-  <si>
-    <t>Bratwurstglöckerl</t>
-  </si>
-  <si>
-    <t>Stadtliebe Linz</t>
-  </si>
-  <si>
-    <t>Wia z'haus Lehner</t>
-  </si>
-  <si>
-    <t>Gasthaus Eiserne Hand</t>
-  </si>
-  <si>
-    <t>Rotax MAX Dome</t>
-  </si>
-  <si>
-    <t>Booosters</t>
-  </si>
-  <si>
-    <t>Mission Games</t>
-  </si>
-  <si>
-    <t>Schloss Café Linz</t>
-  </si>
-  <si>
-    <t>Zum Schiefen Apfelbaum</t>
-  </si>
-  <si>
-    <t>HALL.O Swingolf</t>
-  </si>
-  <si>
-    <t>Stiegl-Klosterhof</t>
-  </si>
-  <si>
-    <t>Game &amp; Dine</t>
+    <t>Selbstorganisation</t>
   </si>
   <si>
     <t>0732272999</t>
@@ -1240,9 +1333,15 @@
     <t>[48.312061, 14.2810701]</t>
   </si>
   <si>
+    <t>[48.30135662042273, 14.321515640384213]</t>
+  </si>
+  <si>
     <t>[48.2972578, 14.2894709]</t>
   </si>
   <si>
+    <t>[48.30135779936691, 14.321510487345043]</t>
+  </si>
+  <si>
     <t>[48.2434541, 14.2358488]</t>
   </si>
   <si>
@@ -1252,6 +1351,9 @@
     <t>[48.3120734, 14.2988529]</t>
   </si>
   <si>
+    <t>[48.251543295110665, 14.246764541104266]</t>
+  </si>
+  <si>
     <t>[48.2546544, 14.2793947]</t>
   </si>
   <si>
@@ -1261,6 +1363,9 @@
     <t>[48.3060622, 14.2869766]</t>
   </si>
   <si>
+    <t>[48.31139026351853, 14.315165999999762]</t>
+  </si>
+  <si>
     <t>[48.2785365, 14.3193157]</t>
   </si>
   <si>
@@ -1312,6 +1417,27 @@
     <t>[48.3094, 14.2836]</t>
   </si>
   <si>
+    <t>[48.30573502257994, 14.282031691527816]</t>
+  </si>
+  <si>
+    <t>[48.281432002870424, 14.293608090970707]</t>
+  </si>
+  <si>
+    <t>[48.3248913845126, 14.298549647330535]</t>
+  </si>
+  <si>
+    <t>[48.3023536725517, 14.289336294934136]</t>
+  </si>
+  <si>
+    <t>[48.29544603751299, 14.294202991307817]</t>
+  </si>
+  <si>
+    <t>[48.303974150311454, 14.288800007639]</t>
+  </si>
+  <si>
+    <t>[48.29900306288296, 14.307031818368804]</t>
+  </si>
+  <si>
     <t>https://facebook.com/masters-of-escape-team-r-tselspa-in-linz</t>
   </si>
   <si>
@@ -1483,9 +1609,78 @@
     <t>https://www.instagram.com/missiongames_linz</t>
   </si>
   <si>
+    <t>https://www.mastersofescape.at/index.php?s=c</t>
+  </si>
+  <si>
+    <t>https://lasertron-linz.at/#order</t>
+  </si>
+  <si>
+    <t>https://www.exittheroom.at/buchung</t>
+  </si>
+  <si>
+    <t>https://linz.nowayout-escape.at/de/#rooms</t>
+  </si>
+  <si>
+    <t>https://oceanparkpluscity.at/packages/</t>
+  </si>
+  <si>
+    <t>https://jumpdome.at/linz/buchen/</t>
+  </si>
+  <si>
+    <t>https://www.linzerbier.at/buchungskalender/</t>
+  </si>
+  <si>
+    <t>https://play.ruffgolf.eu/venues/ruff-leonding/booking/bays</t>
+  </si>
+  <si>
+    <t>https://linz.another-world.com/buy</t>
+  </si>
+  <si>
+    <t>https://ars.electronica.art/center/de/deepspace-3d/</t>
+  </si>
+  <si>
+    <t>https://linzerschweben.at/termine/</t>
+  </si>
+  <si>
+    <t>https://www.voestalpine.com/stahlwelt/Besuch-planen/Gruppen</t>
+  </si>
+  <si>
+    <t>https://www.stubm.at/reservieren.aspx</t>
+  </si>
+  <si>
+    <t>https://www.ilteatro.at/reservierung/</t>
+  </si>
+  <si>
+    <t>https://josef.eu/reservierung/</t>
+  </si>
+  <si>
+    <t>https://www.pauls-linz.at/reservierung</t>
+  </si>
+  <si>
+    <t>https://services.linzag.at/onlinereservierung/curlingrinkstep1.jsf?nav=%2Fde_1%2Fprivatkunden%2Ffreizeit%2Feissport%2Fonline_reservierung%2Fonline_reservierung_eishalle.nav.xhtml</t>
+  </si>
+  <si>
+    <t>https://www.lennox.at/events/cocktailkurse/#events</t>
+  </si>
+  <si>
+    <t>https://www.xn--ngus-koa.at/#contactform</t>
+  </si>
+  <si>
+    <t>https://glorious-bastards.at/linz/</t>
+  </si>
+  <si>
+    <t>https://www.bratwurstgloeckerl.at/de/reservierung/</t>
+  </si>
+  <si>
+    <t>https://www.stadtliebe.at/reservierung</t>
+  </si>
+  <si>
     <t>https://www.wiazhaus-lehner.at/reservierung/</t>
   </si>
   <si>
+    <t>https://www.gasthaus-eisernehand.at/start/</t>
+  </si>
+  <si>
     <t>https://www.rotaxmaxdome.com/linz/buchen</t>
   </si>
   <si>
@@ -1498,6 +1693,9 @@
     <t>https://zumschiefenapfelbaum.at/reservierung</t>
   </si>
   <si>
+    <t>https://reservierung.swingolf.at/</t>
+  </si>
+  <si>
     <t>https://www.klosterhof.at/kontakt-service/tischreservierung/</t>
   </si>
   <si>
@@ -1507,6 +1705,57 @@
     <t>https://www.jack-the-ripperl.com/linz-landstrasse/reservieren/</t>
   </si>
   <si>
+    <t>Die Kunden loben die authentische Atmosphäre und die liebevoll, detailreich gestalteten Räume. Besonders das überaus freundliche und kompetente Personal wird hervorgehoben. Die Rätsel beschreiben Besucher als abwechslungsreich, logisch und technisch beeindruckend. Egal ob „Prison Break“ oder „Wudang“, die spannenden Geschichten und der hohe Spaßfaktor machen den Anbieter zu einer Top-Empfehlung für Gruppen.</t>
+  </si>
+  <si>
+    <t>Die Besucher heben den extremen Spaßfaktor hervor. Sie beschreiben Lasertron als ideales Erlebnis für Familienausflüge, Kindergeburtstage und Gruppen. Das Personal wird in vielen Rezensionen als sehr freundlich, hilfsbereit und kompetent bei der Einweisung gelobt. Kunden schätzen die coole Arena, die verständlichen Regeln und die Möglichkeit, sich sportlich richtig auszupowern.</t>
+  </si>
+  <si>
+    <t>Die Besucher sind begeistert vom hohen Spaßfaktor und der Spannung. Sie beschreiben die Räume, insbesondere das Zombie- und Murder-Szenario, als gut durchdacht und unterhaltsam. Das Personal wird vielfach als sehr freundlich, sympathisch und hilfsbereit gelobt. Kunden schätzen die kniffligen, logischen Rätsel und empfehlen das Erlebnis für Freunde, Familien und Kollegen weiter.</t>
+  </si>
+  <si>
+    <t>Die Besucher loben die detailreiche und liebevolle Gestaltung der Räume, insbesondere die magische Atmosphäre in „School of Magic“. Das Personal wird vielfach als überaus herzlich, hilfsbereit und kompetent beschrieben. Viele Kunden betonen den hohen Spaßfaktor für Familien und Einsteiger. Die Rätsel werden als unterhaltsam und die Kulissen als immersiv wahrgenommen.</t>
+  </si>
+  <si>
+    <t>Die Kunden bewerten die Anlage grundsätzlich als modern und das Angebot an Bowling, Billard und Arcade-Spielen als unterhaltsam, besonders für Gruppen und Kinder. Das Ambiente wird oft als ansprechend beschrieben. Jedoch wird der Service massiv kritisiert: Das Personal wird überwiegend als unfreundlich, unmotiviert und langsam wahrgenommen. Viele Kunden berichten von technischen Mängeln an den Bowlingbahnen und defekten Spielautomaten. Ein häufiger Beschwerdegrund ist zudem die Preispolitik, insbesondere der verpflichtende Getränkekonsum, hohe Preise für Getränke sowie Probleme bei der Kautionsrückgabe. Auch die Hygiene der Leihschuhe wird vereinzelt bemängelt.</t>
+  </si>
+  <si>
+    <t>Die Kunden sind begeistert vom hohen Spaßfaktor und beschreiben die Anlage als idealen Ort zum Auspowern für Kinder und Erwachsene. Besonders gelobt werden die abwechslungsreichen Sprungbereiche, die Sauberkeit der Halle und das überwiegend freundliche, hilfsbereite Personal. Auch die Organisation von Geburtstagsfeiern wird positiv hervorgehoben. Kritisch sehen Kunden hingegen das Preis-Leistungs-Verhältnis: Die Eintrittspreise sowie die zusätzlichen Kosten für obligatorische Socken und Armbänder werden von vielen als zu hoch empfunden. Vereinzelt werden zudem die hohen Temperaturen und die schlechte Belüftung in der Halle bemängelt.</t>
+  </si>
+  <si>
+    <t>Hier sollte eine aggregierte Kundenmeinung stehen</t>
+  </si>
+  <si>
+    <t>https://www.zurliesl.at/</t>
+  </si>
+  <si>
+    <t>https://www.stubm.at/speisen.html</t>
+  </si>
+  <si>
+    <t>https://www.ilteatro.at/speisen/</t>
+  </si>
+  <si>
+    <t>https://josef.eu/food-drinks/</t>
+  </si>
+  <si>
+    <t>https://www.pauls-linz.at/essen-trinken</t>
+  </si>
+  <si>
+    <t>https://www.xn--ngus-koa.at/#speisekarten</t>
+  </si>
+  <si>
+    <t>https://glorious-bastards.at/food/</t>
+  </si>
+  <si>
+    <t>https://www.bratwurstgloeckerl.at/de/essen_trinken/</t>
+  </si>
+  <si>
+    <t>https://www.stadtliebe.at/urbanfood</t>
+  </si>
+  <si>
+    <t>https://www.wiazhaus-lehner.at/speisekarte</t>
+  </si>
+  <si>
     <t>http://www.gasthaus-eisernehand.at/speisen.html</t>
   </si>
   <si>
@@ -1520,268 +1769,13 @@
   </si>
   <si>
     <t>https://www.jack-the-ripperl.com/linz-landstrasse/ripperl/</t>
-  </si>
-  <si>
-    <t>Hier sollte eine aggregierte Kundenmeinung stehen</t>
-  </si>
-  <si>
-    <t>Die Besucher sind begeistert vom hohen Spaßfaktor und der Spannung. Sie beschreiben die Räume, insbesondere das Zombie- und Murder-Szenario, als gut durchdacht und unterhaltsam. Das Personal wird vielfach als sehr freundlich, sympathisch und hilfsbereit gelobt. Kunden schätzen die kniffligen, logischen Rätsel und empfehlen das Erlebnis für Freunde, Familien und Kollegen weiter.</t>
-  </si>
-  <si>
-    <t>[48.30135662042273, 14.321515640384213]</t>
-  </si>
-  <si>
-    <t>[48.30135779936691, 14.321510487345043]</t>
-  </si>
-  <si>
-    <t>[48.251543295110665, 14.246764541104266]</t>
-  </si>
-  <si>
-    <t>[48.31139026351853, 14.315165999999762]</t>
-  </si>
-  <si>
-    <t>[48.30573502257994, 14.282031691527816]</t>
-  </si>
-  <si>
-    <t>[48.281432002870424, 14.293608090970707]</t>
-  </si>
-  <si>
-    <t>[48.3248913845126, 14.298549647330535]</t>
-  </si>
-  <si>
-    <t>[48.3023536725517, 14.289336294934136]</t>
-  </si>
-  <si>
-    <t>[48.29544603751299, 14.294202991307817]</t>
-  </si>
-  <si>
-    <t>[48.303974150311454, 14.288800007639]</t>
-  </si>
-  <si>
-    <t>https://www.mastersofescape.at/index.php?s=c</t>
-  </si>
-  <si>
-    <t>https://lasertron-linz.at/#order</t>
-  </si>
-  <si>
-    <t>https://www.exittheroom.at/buchung</t>
-  </si>
-  <si>
-    <t>https://linz.nowayout-escape.at/de/#rooms</t>
-  </si>
-  <si>
-    <t>https://oceanparkpluscity.at/packages/</t>
-  </si>
-  <si>
-    <t>https://jumpdome.at/linz/buchen/</t>
-  </si>
-  <si>
-    <t>https://www.linzerbier.at/buchungskalender/</t>
-  </si>
-  <si>
-    <t>https://play.ruffgolf.eu/venues/ruff-leonding/booking/bays</t>
-  </si>
-  <si>
-    <t>https://linz.another-world.com/buy</t>
-  </si>
-  <si>
-    <t>https://ars.electronica.art/center/de/deepspace-3d/</t>
-  </si>
-  <si>
-    <t>https://linzerschweben.at/termine/</t>
-  </si>
-  <si>
-    <t>https://www.voestalpine.com/stahlwelt/Besuch-planen/Gruppen</t>
-  </si>
-  <si>
-    <t>https://www.stubm.at/reservieren.aspx</t>
-  </si>
-  <si>
-    <t>https://www.ilteatro.at/reservierung/</t>
-  </si>
-  <si>
-    <t>https://josef.eu/reservierung/</t>
-  </si>
-  <si>
-    <t>https://www.pauls-linz.at/reservierung</t>
-  </si>
-  <si>
-    <t>https://services.linzag.at/onlinereservierung/curlingrinkstep1.jsf?nav=%2Fde_1%2Fprivatkunden%2Ffreizeit%2Feissport%2Fonline_reservierung%2Fonline_reservierung_eishalle.nav.xhtml</t>
-  </si>
-  <si>
-    <t>https://www.lennox.at/events/cocktailkurse/#events</t>
-  </si>
-  <si>
-    <t>https://www.xn--ngus-koa.at/#contactform</t>
-  </si>
-  <si>
-    <t>https://glorious-bastards.at/linz/</t>
-  </si>
-  <si>
-    <t>https://www.bratwurstgloeckerl.at/de/reservierung/</t>
-  </si>
-  <si>
-    <t>https://www.stadtliebe.at/reservierung</t>
-  </si>
-  <si>
-    <t>https://www.gasthaus-eisernehand.at/start/</t>
-  </si>
-  <si>
-    <t>https://reservierung.swingolf.at/</t>
-  </si>
-  <si>
-    <t>https://www.zurliesl.at/</t>
-  </si>
-  <si>
-    <t>https://www.stubm.at/speisen.html</t>
-  </si>
-  <si>
-    <t>https://www.ilteatro.at/speisen/</t>
-  </si>
-  <si>
-    <t>https://josef.eu/food-drinks/</t>
-  </si>
-  <si>
-    <t>https://www.pauls-linz.at/essen-trinken</t>
-  </si>
-  <si>
-    <t>https://www.xn--ngus-koa.at/#speisekarten</t>
-  </si>
-  <si>
-    <t>https://glorious-bastards.at/food/</t>
-  </si>
-  <si>
-    <t>https://www.bratwurstgloeckerl.at/de/essen_trinken/</t>
-  </si>
-  <si>
-    <t>https://www.stadtliebe.at/urbanfood</t>
-  </si>
-  <si>
-    <t>https://www.wiazhaus-lehner.at/speisekarte</t>
-  </si>
-  <si>
-    <t>Die Kunden loben die authentische Atmosphäre und die liebevoll, detailreich gestalteten Räume. Besonders das überaus freundliche und kompetente Personal wird hervorgehoben. Die Rätsel beschreiben Besucher als abwechslungsreich, logisch und technisch beeindruckend. Egal ob „Prison Break“ oder „Wudang“, die spannenden Geschichten und der hohe Spaßfaktor machen den Anbieter zu einer Top-Empfehlung für Gruppen.</t>
-  </si>
-  <si>
-    <t>Die Besucher heben den extremen Spaßfaktor hervor. Sie beschreiben Lasertron als ideales Erlebnis für Familienausflüge, Kindergeburtstage und Gruppen. Das Personal wird in vielen Rezensionen als sehr freundlich, hilfsbereit und kompetent bei der Einweisung gelobt. Kunden schätzen die coole Arena, die verständlichen Regeln und die Möglichkeit, sich sportlich richtig auszupowern.</t>
-  </si>
-  <si>
-    <t>Die Besucher loben die detailreiche und liebevolle Gestaltung der Räume, insbesondere die magische Atmosphäre in „School of Magic“. Das Personal wird vielfach als überaus herzlich, hilfsbereit und kompetent beschrieben. Viele Kunden betonen den hohen Spaßfaktor für Familien und Einsteiger. Die Rätsel werden als unterhaltsam und die Kulissen als immersiv wahrgenommen.</t>
-  </si>
-  <si>
-    <t>Die Kunden bewerten die Anlage grundsätzlich als modern und das Angebot an Bowling, Billard und Arcade-Spielen als unterhaltsam, besonders für Gruppen und Kinder. Das Ambiente wird oft als ansprechend beschrieben. Jedoch wird der Service massiv kritisiert: Das Personal wird überwiegend als unfreundlich, unmotiviert und langsam wahrgenommen. Viele Kunden berichten von technischen Mängeln an den Bowlingbahnen und defekten Spielautomaten. Ein häufiger Beschwerdegrund ist zudem die Preispolitik, insbesondere der verpflichtende Getränkekonsum, hohe Preise für Getränke sowie Probleme bei der Kautionsrückgabe. Auch die Hygiene der Leihschuhe wird vereinzelt bemängelt.</t>
-  </si>
-  <si>
-    <t>Die Kunden sind begeistert vom hohen Spaßfaktor und beschreiben die Anlage als idealen Ort zum Auspowern für Kinder und Erwachsene. Besonders gelobt werden die abwechslungsreichen Sprungbereiche, die Sauberkeit der Halle und das überwiegend freundliche, hilfsbereite Personal. Auch die Organisation von Geburtstagsfeiern wird positiv hervorgehoben. Kritisch sehen Kunden hingegen das Preis-Leistungs-Verhältnis: Die Eintrittspreise sowie die zusätzlichen Kosten für obligatorische Socken und Armbänder werden von vielen als zu hoch empfunden. Vereinzelt werden zudem die hohen Temperaturen und die schlechte Belüftung in der Halle bemängelt.</t>
-  </si>
-  <si>
-    <t>Selbstorganisation</t>
-  </si>
-  <si>
-    <t>[48.29900306288296, 14.307031818368804]</t>
-  </si>
-  <si>
-    <t>Schloss Café Linz: BBQ &amp; Sommerabend fürs Team</t>
-  </si>
-  <si>
-    <t>Zum Schiefen Apfelbaum: Wirtshaus-Genuss mit Charme</t>
-  </si>
-  <si>
-    <t>HALL.O Swingolf Linz: Die entspannte Team-Challenge</t>
-  </si>
-  <si>
-    <t>Stiegl-Klosterhof Linz: Biergarten-Vibes &amp; Feierabendrunde</t>
-  </si>
-  <si>
-    <t>Game &amp; Dine: Zocken, Snacken &amp; Teamspaß</t>
-  </si>
-  <si>
-    <t>Jack the Ripperl: Ripperl-Feast für hungrige Teams</t>
-  </si>
-  <si>
-    <t>RAITEC Kellerstüberl: Pokerabend mit Chips &amp; Cheers</t>
-  </si>
-  <si>
-    <t>RAITEC Kellerstüberl: Lecker Bierchen &amp; Feierabendtalk</t>
-  </si>
-  <si>
-    <t>RAITEC Chill-Out-Zone: Runterkommen, Quatschen, Auftanken</t>
-  </si>
-  <si>
-    <t>Büroparty Deluxe: Musik, Drinks &amp; Smalltalk-Marathon</t>
-  </si>
-  <si>
-    <t>cafe,restaurant,bbq,grill,gastgarten,gruppen,teamevent,outdoor</t>
-  </si>
-  <si>
-    <t>swingolf,discgolf,sport,fun,teambuilding,gruppen,outdoor</t>
-  </si>
-  <si>
-    <t>gasthaus,tradition,österreichisch,essen,gruppen</t>
-  </si>
-  <si>
-    <t>braurestaurant,biergarten,bier,genuss,gruppen,teamevent</t>
-  </si>
-  <si>
-    <t>boardgames,videogames,gaming,fun,gruppen,teambuilding,indoor</t>
-  </si>
-  <si>
-    <t>ripperl,bbq,grill,restaurant,gruppen,teamevent</t>
-  </si>
-  <si>
-    <t>raitec,kellerstüberl,pokern,kartenspiel,drinks,gruppen,teamevent,indoor</t>
-  </si>
-  <si>
-    <t>raitec,kellerstüberl,bier,trinken,afterwork,gruppen,teamevent,indoor</t>
-  </si>
-  <si>
-    <t>raitec,chill-out-zone,afterwork,relax,outdoor,bier,gruppen,teamevent</t>
-  </si>
-  <si>
-    <t>raitec,büro,party,musik,drinks,bier,gruppen,teamevent,indoor</t>
-  </si>
-  <si>
-    <t>Entspannte Bier-Runde im Kellerstüberl – anstoßen, plaudern und den Tag gemeinsam ausklingen lassen.</t>
-  </si>
-  <si>
-    <t>Locker abhängen in der Chill-Out-Zone – entspannen, austauschen und neue Energie fürs Team tanken.</t>
-  </si>
-  <si>
-    <t>Afterwork-Büroparty mit Musik und Drinks – unkompliziert feiern und gemeinsam Spaß haben.</t>
-  </si>
-  <si>
-    <t>Gemütlicher Pokerabend im RAITEC Kellerstüberl – Karten, Chips und gute Laune im Team.</t>
-  </si>
-  <si>
-    <t>Das RAITEC Kellerstüberl wird zur kleinen Casino-Nacht: Poker-Setup aufbauen, Chips verteilen, Regeln kurz erklären (Texas Hold’em geht immer) – und schon läuft ein entspannter Abend, bei dem Strategie, Bluffs und viel Gelächter im Vordergrund stehen. Perfekt für Teams, die lieber in kleiner Runde zusammensitzen, nebenbei reden und trotzdem ein „Event-Gefühl“ haben. Optional könnt ihr eine Mini-Siegerehrung machen (z. B. Süßigkeiten, kleines Gadget, Wanderpokal).</t>
-  </si>
-  <si>
-    <t>Unkomplizierter geht’s kaum: Nach der Arbeit runter ins Kellerstüberl, ein (oder zwei) Bierchen aufmachen und einfach den Kopf auslüften. Ohne Programm, ohne Druck – dafür mit Raum für echte Gespräche, gemeinsames Lachen und das berühmte „Wie war dein Tag wirklich?“. Ideal als Afterwork-Format, um neue Kolleg:innen einzubinden, Themen informell zu klären und den Team-Zusammenhalt zu stärken. Snacks, Musik im Hintergrund oder eine kleine Runde Kartenspiele machen’s noch gemütlicher.</t>
-  </si>
-  <si>
-    <t>Die Chill-Out-Zone ist das Gegenprogramm zum Meeting-Marathon: kurz raus aus dem Kopf, rein in den Feierabendmodus. Ob draußen sitzen, etwas trinken, ein bisschen (leise) Musik oder einfach nur plaudern – hier entsteht Teamgefühl ganz nebenbei, weil niemand „performen“ muss. Besonders gut als lockerer Wochenteiler oder zum Start ins Wochenende: 30–60 Minuten entspannen, gemeinsam abschalten, und danach gehen alle mit besserer Laune nach Hause.</t>
-  </si>
-  <si>
-    <t>Wenn’s mal ein bisschen mehr sein darf: Büro auf „Party-Modus“ schalten – Musik an, Drinks kaltstellen, Snacks bereitstellen und die Arbeitswoche mit einer kleinen Feier ausklingen lassen. Das Format ist super flexibel: von gemütlichem Get-together bis „wir tanzen wirklich“. Mit ein paar einfachen Extras wird’s gleich eventiger (Playlist-Wunschbox, Mini-Quiz, Fotospot, Themenabend). Perfekt für Teamerfolge, Geburtstage, Projektabschlüsse oder einfach als moraleboostender Klassiker.</t>
-  </si>
-  <si>
-    <t>im Prinzip nur Snacks &amp; Getränke (ca. 5–15 € p.P.); optional kleiner „Buy-in“ (z.B. 5 €) für einen Team-Preis.</t>
-  </si>
-  <si>
-    <t>Getränke nach Konsum (meist 3–10 € p.P.), dazu Chips/Pizza auf Selbstkostenbasis – kaum Fixkosten.</t>
-  </si>
-  <si>
-    <t>Quasi gratis: je nach Setup nur Getränke/Snacks (0–10 € p.P.); ideal als spontanes Teamformat ohne Budgetfreigabe.</t>
-  </si>
-  <si>
-    <t>meist „BYO + Snacks“ (5–15 € p.P.) Technik/Musik meist vorhanden, daher wenig Zusatzkosten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,26 +1846,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1909,7 +1895,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1943,7 +1929,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1978,10 +1963,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2154,60 +2138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="48.796875" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" customWidth="1"/>
-    <col min="3" max="3" width="53.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="18.1328125" customWidth="1"/>
-    <col min="8" max="8" width="17.53125" customWidth="1"/>
-    <col min="9" max="9" width="86.86328125" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" customWidth="1"/>
-    <col min="11" max="11" width="82.86328125" customWidth="1"/>
-    <col min="12" max="12" width="255.59765625" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" customWidth="1"/>
-    <col min="15" max="15" width="19.9296875" customWidth="1"/>
-    <col min="16" max="16" width="104.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.53125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.06640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.46484375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.9296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="53.06640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="50.86328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="47.265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="66.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,39 +2264,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:39">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2">
         <v>28</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -2370,40 +2311,40 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="Q2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="R2">
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T2">
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="W2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X2" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="Y2" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="Z2">
         <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -2418,13 +2359,13 @@
         <v>6</v>
       </c>
       <c r="AF2" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="AI2">
         <v>100</v>
@@ -2433,43 +2374,45 @@
         <v>0</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" t="s">
-        <v>546</v>
+        <v>531</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:39">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3">
         <v>22</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -2481,37 +2424,37 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>4.3</v>
       </c>
       <c r="S3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="T3">
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="W3" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X3" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="Y3" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="Z3">
         <v>17</v>
       </c>
       <c r="AA3" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB3">
         <v>5</v>
@@ -2526,13 +2469,13 @@
         <v>15</v>
       </c>
       <c r="AF3" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="AI3">
         <v>100</v>
@@ -2541,43 +2484,45 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" t="s">
-        <v>547</v>
+        <v>532</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:39">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4">
         <v>28</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2589,37 +2534,37 @@
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>4.7</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T4">
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="W4" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="X4" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Y4" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="Z4">
         <v>21</v>
       </c>
       <c r="AA4" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -2634,13 +2579,13 @@
         <v>6</v>
       </c>
       <c r="AF4" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="AI4">
         <v>100</v>
@@ -2649,43 +2594,45 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" t="s">
-        <v>501</v>
+        <v>533</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:39">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -2697,37 +2644,37 @@
         <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="Q5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S5" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T5">
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="W5" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X5" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="Y5" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="Z5">
         <v>17</v>
       </c>
       <c r="AA5" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB5">
         <v>3</v>
@@ -2742,13 +2689,13 @@
         <v>15</v>
       </c>
       <c r="AF5" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="AI5">
         <v>100</v>
@@ -2757,43 +2704,45 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" t="s">
-        <v>548</v>
+        <v>534</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:39">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6">
         <v>35</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -2805,37 +2754,37 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>3.5</v>
       </c>
       <c r="S6" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T6">
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="W6" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X6" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="Y6" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="Z6">
         <v>125</v>
       </c>
       <c r="AA6" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB6">
         <v>4</v>
@@ -2850,13 +2799,13 @@
         <v>15</v>
       </c>
       <c r="AF6" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="AI6">
         <v>100</v>
@@ -2865,43 +2814,45 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" t="s">
-        <v>549</v>
+        <v>535</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:39">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -2913,37 +2864,37 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="Q7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S7" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="T7">
         <v>13</v>
       </c>
       <c r="U7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="W7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="Y7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="Z7">
         <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB7">
         <v>2</v>
@@ -2958,13 +2909,13 @@
         <v>15</v>
       </c>
       <c r="AF7" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="AI7">
         <v>100</v>
@@ -2973,46 +2924,48 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" t="s">
-        <v>550</v>
+        <v>536</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -3024,37 +2977,37 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>4.3</v>
       </c>
       <c r="S8" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T8">
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="W8" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="X8" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="Y8" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="Z8">
         <v>26</v>
       </c>
       <c r="AA8" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -3069,13 +3022,13 @@
         <v>15</v>
       </c>
       <c r="AF8" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="AI8">
         <v>100</v>
@@ -3084,45 +3037,48 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>500</v>
+        <v>537</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9">
         <v>25</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -3134,37 +3090,37 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>4.8</v>
       </c>
       <c r="S9" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T9">
         <v>14</v>
       </c>
       <c r="U9" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="W9" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X9" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="Y9" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="Z9">
         <v>105</v>
       </c>
       <c r="AA9" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB9">
         <v>3</v>
@@ -3179,13 +3135,13 @@
         <v>15</v>
       </c>
       <c r="AF9" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="AI9">
         <v>100</v>
@@ -3194,46 +3150,48 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AL9" s="2"/>
-      <c r="AM9" t="s">
-        <v>500</v>
+        <v>538</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:39">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10">
-        <v>35</v>
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
       </c>
       <c r="F10">
         <v>35</v>
       </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -3245,37 +3203,37 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="T10">
         <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="W10" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X10" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Y10" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="Z10">
         <v>94</v>
       </c>
       <c r="AA10" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB10">
         <v>3</v>
@@ -3290,13 +3248,13 @@
         <v>15</v>
       </c>
       <c r="AF10" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="AI10">
         <v>100</v>
@@ -3305,43 +3263,45 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AL10" s="2"/>
-      <c r="AM10" t="s">
-        <v>500</v>
+        <v>539</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:39">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -3353,37 +3313,37 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>4.5</v>
       </c>
       <c r="S11" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T11">
         <v>8</v>
       </c>
       <c r="U11" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="W11" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X11" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="Y11" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="Z11">
         <v>38</v>
       </c>
       <c r="AA11" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -3398,13 +3358,13 @@
         <v>15</v>
       </c>
       <c r="AF11" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="AI11">
         <v>100</v>
@@ -3413,43 +3373,45 @@
         <v>0</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AL11" s="2"/>
-      <c r="AM11" t="s">
-        <v>500</v>
+        <v>540</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:39">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12">
         <v>79</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -3461,37 +3423,37 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>4.8</v>
       </c>
       <c r="S12" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="W12" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="X12" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="Y12" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="Z12">
         <v>29</v>
       </c>
       <c r="AA12" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -3506,13 +3468,13 @@
         <v>15</v>
       </c>
       <c r="AF12" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="AI12">
         <v>100</v>
@@ -3521,43 +3483,45 @@
         <v>0</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="AL12" s="2"/>
-      <c r="AM12" t="s">
-        <v>500</v>
+        <v>541</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:39">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13">
         <v>35</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -3569,37 +3533,37 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="Q13">
         <v>4.7</v>
       </c>
       <c r="S13" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="W13" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="X13" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="Y13" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="Z13">
         <v>27</v>
       </c>
       <c r="AA13" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -3614,13 +3578,13 @@
         <v>15</v>
       </c>
       <c r="AF13" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="AI13">
         <v>100</v>
@@ -3629,43 +3593,45 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL13" s="2"/>
-      <c r="AM13" t="s">
-        <v>500</v>
+        <v>302</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:39">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14">
         <v>22</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -3677,37 +3643,37 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="Q14">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S14" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T14">
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="W14" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="X14" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="Y14" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="Z14">
         <v>43</v>
       </c>
       <c r="AA14" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -3722,13 +3688,13 @@
         <v>15</v>
       </c>
       <c r="AF14" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="AI14">
         <v>100</v>
@@ -3737,46 +3703,48 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" t="s">
-        <v>500</v>
+        <v>542</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15">
         <v>40</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -3788,37 +3756,37 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="Q15">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S15" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="W15" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X15" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="Y15" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="Z15">
         <v>7</v>
       </c>
       <c r="AA15" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB15">
         <v>1</v>
@@ -3833,13 +3801,13 @@
         <v>15</v>
       </c>
       <c r="AF15" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="AI15">
         <v>100</v>
@@ -3848,48 +3816,51 @@
         <v>1</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>500</v>
+        <v>543</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16">
         <v>35</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3901,37 +3872,37 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
       </c>
       <c r="S16" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="W16" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X16" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="Y16" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="Z16">
         <v>14</v>
       </c>
       <c r="AA16" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -3946,13 +3917,13 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="AI16">
         <v>100</v>
@@ -3961,48 +3932,51 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>500</v>
+        <v>544</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:39">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -4014,37 +3988,37 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="Q17">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S17" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T17">
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="W17" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="X17" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="Y17" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="Z17">
         <v>21</v>
       </c>
       <c r="AA17" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -4059,13 +4033,13 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="AI17">
         <v>100</v>
@@ -4074,48 +4048,51 @@
         <v>1</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>500</v>
+        <v>545</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:39">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18">
         <v>50</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4127,37 +4104,37 @@
         <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Q18">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S18" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T18">
         <v>8</v>
       </c>
       <c r="U18" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="W18" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="X18" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="Y18" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="Z18">
         <v>26</v>
       </c>
       <c r="AA18" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -4172,13 +4149,13 @@
         <v>15</v>
       </c>
       <c r="AF18" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="AI18">
         <v>100</v>
@@ -4187,48 +4164,51 @@
         <v>1</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>500</v>
+        <v>546</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:39">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19">
         <v>45</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -4240,37 +4220,37 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
       </c>
       <c r="S19" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T19">
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="W19" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="X19" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="Y19" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Z19">
         <v>72</v>
       </c>
       <c r="AA19" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -4285,13 +4265,13 @@
         <v>15</v>
       </c>
       <c r="AF19" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="AI19">
         <v>100</v>
@@ -4300,45 +4280,48 @@
         <v>1</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>500</v>
+        <v>308</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:39">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20">
         <v>28</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="M20">
         <v>3</v>
@@ -4350,37 +4333,37 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
       </c>
       <c r="S20" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T20">
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="W20" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="X20" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="Y20" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="Z20">
         <v>28</v>
       </c>
       <c r="AA20" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB20">
         <v>5</v>
@@ -4395,13 +4378,13 @@
         <v>15</v>
       </c>
       <c r="AF20" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="AI20">
         <v>100</v>
@@ -4410,43 +4393,45 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL20" s="2"/>
-      <c r="AM20" t="s">
-        <v>500</v>
+        <v>547</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:39">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21">
         <v>25</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -4458,37 +4443,37 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
       </c>
       <c r="S21" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T21">
         <v>14</v>
       </c>
       <c r="U21" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="W21" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="X21" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="Y21" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="Z21">
         <v>125</v>
       </c>
       <c r="AA21" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -4503,13 +4488,13 @@
         <v>30</v>
       </c>
       <c r="AF21" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="AI21">
         <v>100</v>
@@ -4518,43 +4503,45 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL21" s="2"/>
-      <c r="AM21" t="s">
-        <v>500</v>
+        <v>310</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="1:39">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22">
         <v>59</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -4566,37 +4553,37 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>4.8</v>
       </c>
       <c r="S22" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T22">
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="W22" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X22" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Y22" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="Z22">
         <v>25</v>
       </c>
       <c r="AA22" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -4611,13 +4598,13 @@
         <v>15</v>
       </c>
       <c r="AF22" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="AI22">
         <v>100</v>
@@ -4626,46 +4613,48 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="AL22" s="2"/>
-      <c r="AM22" t="s">
-        <v>500</v>
+        <v>548</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:39">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23">
         <v>60</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -4677,37 +4666,37 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>4.7</v>
       </c>
       <c r="S23" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T23">
         <v>8</v>
       </c>
       <c r="U23" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="W23" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="X23" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="Y23" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="Z23">
         <v>27</v>
       </c>
       <c r="AA23" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -4722,13 +4711,13 @@
         <v>15</v>
       </c>
       <c r="AF23" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="AI23">
         <v>100</v>
@@ -4737,48 +4726,51 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>500</v>
+        <v>549</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="1:39">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -4790,37 +4782,37 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="Q24">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S24" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T24">
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="W24" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="X24" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="Y24" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="Z24">
         <v>31</v>
       </c>
       <c r="AA24" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -4835,13 +4827,13 @@
         <v>15</v>
       </c>
       <c r="AF24" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="AI24">
         <v>100</v>
@@ -4850,48 +4842,51 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>500</v>
+        <v>550</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="1:39">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25">
         <v>35</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -4903,37 +4898,37 @@
         <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
       </c>
       <c r="S25" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T25">
         <v>9</v>
       </c>
       <c r="U25" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="W25" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="X25" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="Y25" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="Z25">
         <v>60</v>
       </c>
       <c r="AA25" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB25">
         <v>1</v>
@@ -4948,13 +4943,13 @@
         <v>15</v>
       </c>
       <c r="AF25" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="AI25">
         <v>100</v>
@@ -4963,48 +4958,51 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>500</v>
+        <v>551</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="1:39">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26">
         <v>40</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -5016,37 +5014,37 @@
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="Q26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S26" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T26">
         <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="W26" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="X26" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="Y26" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="Z26">
         <v>24</v>
       </c>
       <c r="AA26" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -5061,13 +5059,13 @@
         <v>15</v>
       </c>
       <c r="AF26" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="AI26">
         <v>100</v>
@@ -5076,48 +5074,51 @@
         <v>1</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>500</v>
+        <v>552</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:39">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -5129,37 +5130,37 @@
         <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q27">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S27" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T27">
         <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="W27" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="X27" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="Y27" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="Z27">
         <v>64</v>
       </c>
       <c r="AA27" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -5174,10 +5175,10 @@
         <v>15</v>
       </c>
       <c r="AF27" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="AI27">
         <v>100</v>
@@ -5186,48 +5187,51 @@
         <v>1</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>500</v>
+        <v>553</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="1:39">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28">
         <v>35</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -5239,37 +5243,37 @@
         <v>4</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
       </c>
       <c r="S28" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="W28" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="X28" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="Y28" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="Z28">
         <v>13</v>
       </c>
       <c r="AA28" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AB28">
         <v>1</v>
@@ -5284,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="AF28" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="AI28">
         <v>80</v>
@@ -5293,45 +5297,48 @@
         <v>1</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AL28" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>500</v>
+        <v>554</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:39">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
         <v>55</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -5343,37 +5350,37 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="Q29">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S29" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="T29">
         <v>5</v>
       </c>
       <c r="U29" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="W29" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="X29" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="Y29" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="Z29">
         <v>32</v>
       </c>
       <c r="AA29" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB29">
         <v>5</v>
@@ -5388,13 +5395,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="AI29">
         <v>100</v>
@@ -5403,42 +5410,45 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>500</v>
+        <v>555</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="1:39">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30">
         <v>45</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -5450,37 +5460,37 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>4.3</v>
       </c>
       <c r="S30" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="T30">
         <v>15</v>
       </c>
       <c r="U30" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="W30" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="X30" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="Y30" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="Z30">
         <v>120</v>
       </c>
       <c r="AA30" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB30">
         <v>5</v>
@@ -5495,13 +5505,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="AI30">
         <v>120</v>
@@ -5510,42 +5520,45 @@
         <v>1</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>500</v>
+        <v>556</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:39">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31">
         <v>34</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -5557,37 +5570,37 @@
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="Q31">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S31" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T31">
         <v>7</v>
       </c>
       <c r="U31" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="W31" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="X31" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="Y31" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="Z31">
         <v>38</v>
       </c>
       <c r="AA31" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB31">
         <v>3</v>
@@ -5602,13 +5615,13 @@
         <v>60</v>
       </c>
       <c r="AF31" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="AI31">
         <v>80</v>
@@ -5617,45 +5630,48 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>500</v>
+        <v>557</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>553</v>
+    <row r="32" spans="1:39">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32">
         <v>28</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -5667,37 +5683,37 @@
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="Q32">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T32">
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="W32" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="X32" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="Y32" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="Z32">
         <v>40</v>
       </c>
       <c r="AA32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB32">
         <v>1</v>
@@ -5712,7 +5728,7 @@
         <v>60</v>
       </c>
       <c r="AF32" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="AI32">
         <v>316</v>
@@ -5720,43 +5736,46 @@
       <c r="AJ32" t="b">
         <v>1</v>
       </c>
-      <c r="AM32" t="s">
-        <v>500</v>
+      <c r="AL32" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>554</v>
+    <row r="33" spans="1:39">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33">
         <v>22</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -5768,37 +5787,37 @@
         <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="Q33">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T33">
         <v>6</v>
       </c>
       <c r="U33" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="W33" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="X33" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="Y33" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="Z33">
         <v>36</v>
       </c>
       <c r="AA33" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -5813,51 +5832,54 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="AJ33" t="b">
         <v>1</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>500</v>
+        <v>558</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>555</v>
+    <row r="34" spans="1:39">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34">
         <v>14</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -5869,37 +5891,37 @@
         <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="Q34">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="S34" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T34">
         <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="X34" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="Y34" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="Z34">
         <v>60</v>
       </c>
       <c r="AA34" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB34">
         <v>3</v>
@@ -5914,51 +5936,54 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>500</v>
+        <v>559</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>556</v>
+    <row r="35" spans="1:39">
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35">
         <v>26</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -5970,37 +5995,37 @@
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>4.2</v>
       </c>
       <c r="S35" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T35">
         <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="W35" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="X35" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="Y35" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="Z35">
         <v>27</v>
       </c>
       <c r="AA35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -6015,51 +6040,54 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="AJ35" t="b">
         <v>1</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>500</v>
+        <v>560</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>557</v>
+    <row r="36" spans="1:39">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>567</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36">
         <v>30</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -6071,37 +6099,37 @@
         <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>4.7</v>
       </c>
       <c r="S36" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="W36" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="X36" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="Y36" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="Z36">
         <v>19</v>
       </c>
       <c r="AA36" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AB36">
         <v>3</v>
@@ -6116,54 +6144,57 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="AJ36" t="b">
         <v>0</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="AL36" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>500</v>
+        <v>561</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>558</v>
+    <row r="37" spans="1:39">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -6175,37 +6206,37 @@
         <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
       </c>
       <c r="S37" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T37">
         <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="W37" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="X37" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="Y37" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="Z37">
         <v>28</v>
       </c>
       <c r="AA37" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -6220,7 +6251,7 @@
         <v>120</v>
       </c>
       <c r="AF37" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="AI37">
         <v>175</v>
@@ -6229,48 +6260,51 @@
         <v>1</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AL37" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>500</v>
+        <v>562</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>559</v>
+    <row r="38" spans="1:39">
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>576</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s">
-        <v>577</v>
+        <v>210</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -6282,22 +6316,22 @@
         <v>5</v>
       </c>
       <c r="P38" t="s">
-        <v>581</v>
+        <v>250</v>
       </c>
       <c r="S38" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>551</v>
+        <v>363</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB38">
         <v>5</v>
@@ -6312,7 +6346,7 @@
         <v>9</v>
       </c>
       <c r="AF38" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="AI38">
         <v>18</v>
@@ -6320,43 +6354,46 @@
       <c r="AJ38" t="b">
         <v>0</v>
       </c>
-      <c r="AM38" t="s">
-        <v>500</v>
+      <c r="AL38" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>560</v>
+    <row r="39" spans="1:39">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s">
-        <v>573</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>578</v>
+        <v>211</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -6368,22 +6405,22 @@
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>582</v>
+        <v>251</v>
       </c>
       <c r="S39" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>551</v>
+        <v>363</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -6398,7 +6435,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="AI39">
         <v>30</v>
@@ -6406,43 +6443,46 @@
       <c r="AJ39" t="b">
         <v>0</v>
       </c>
-      <c r="AM39" t="s">
-        <v>500</v>
+      <c r="AL39" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>561</v>
+    <row r="40" spans="1:39">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s">
-        <v>574</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s">
-        <v>579</v>
+        <v>212</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -6454,22 +6494,22 @@
         <v>5</v>
       </c>
       <c r="P40" t="s">
-        <v>583</v>
+        <v>252</v>
       </c>
       <c r="S40" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>551</v>
+        <v>363</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -6484,7 +6524,7 @@
         <v>15</v>
       </c>
       <c r="AF40" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="AI40">
         <v>20</v>
@@ -6492,43 +6532,46 @@
       <c r="AJ40" t="b">
         <v>1</v>
       </c>
-      <c r="AM40" t="s">
-        <v>500</v>
+      <c r="AL40" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>562</v>
+    <row r="41" spans="1:39">
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>575</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s">
-        <v>580</v>
+        <v>213</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -6540,22 +6583,22 @@
         <v>5</v>
       </c>
       <c r="P41" t="s">
-        <v>584</v>
+        <v>253</v>
       </c>
       <c r="S41" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>551</v>
+        <v>363</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -6570,7 +6613,7 @@
         <v>10</v>
       </c>
       <c r="AF41" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="AI41">
         <v>20</v>
@@ -6578,161 +6621,196 @@
       <c r="AJ41" t="b">
         <v>0</v>
       </c>
-      <c r="AM41" t="s">
-        <v>500</v>
+      <c r="AL41" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AG2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AH2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="V3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AG3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AH3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="V4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AG4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AH4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="V5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AG5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AH5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="V6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AG6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AH6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="V7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AG7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AH7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="V8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AG8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AH8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="V9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AG9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AH9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="V10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AG10" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AH10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="V11" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AG11" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AH11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I12" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="V12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AG12" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AH12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I13" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="V13" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="AG13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AH13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I14" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="V14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AG14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AH14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="V15" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AG15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AH15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I16" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="V16" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AG16" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AH16" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="I17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="V17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AG17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AH17" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I18" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="V18" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="AG18" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="AH18" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I19" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="V19" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="AG19" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="AH19" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="I20" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="V20" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="AG20" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="AH20" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="I21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="V21" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="AG21" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="AH21" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I22" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="V22" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="AG22" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="AH22" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="I23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="V23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="AG23" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="AH23" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="I24" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="V24" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="AG24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="AH24" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="I25" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="V25" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="AG25" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="AH25" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I26" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="V26" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="AG26" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="AH26" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="I27" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="V27" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="AG27" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="AK27" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="I28" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="V28" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="AL28" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="I29" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="V29" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="AG29" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="AH29" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="AK29" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="I30" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="V30" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="AG30" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="AH30" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="AK30" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="I31" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="V31" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="AG31" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="AH31" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="AK31" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="I32" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="V32" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="I33" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="V33" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="AK33" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="AL33" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="I34" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="V34" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="I35" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="V35" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="AK35" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AL35" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="I36" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="V36" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="AK36" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AL36" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="I37" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="V37" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AK37" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AL37" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="AK28" r:id="rId143" xr:uid="{380465A1-CB33-4C75-85D2-396C46FD90A9}"/>
-    <hyperlink ref="AK34" r:id="rId144" xr:uid="{A2BCC424-46CB-4CC9-B4CE-48D67BB492EB}"/>
-    <hyperlink ref="AK14" r:id="rId145" xr:uid="{B9DA3027-FB1D-46DF-9427-1657F8C00D12}"/>
-    <hyperlink ref="I38" r:id="rId146" xr:uid="{70F10C5C-F544-40DC-ACE6-78E67FFDE95A}"/>
-    <hyperlink ref="I39" r:id="rId147" xr:uid="{6FE34F61-BBF8-45F9-9BE3-8AC6ECF242FD}"/>
-    <hyperlink ref="I40" r:id="rId148" xr:uid="{B1F37709-2A9A-4601-B20B-5C40033DDE22}"/>
-    <hyperlink ref="I41" r:id="rId149" xr:uid="{48076E5C-C957-4672-A7DA-5E4292DC1D28}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="AG2" r:id="rId3"/>
+    <hyperlink ref="AH2" r:id="rId4"/>
+    <hyperlink ref="AK2" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="V3" r:id="rId7"/>
+    <hyperlink ref="AG3" r:id="rId8"/>
+    <hyperlink ref="AH3" r:id="rId9"/>
+    <hyperlink ref="AK3" r:id="rId10" location="order"/>
+    <hyperlink ref="I4" r:id="rId11"/>
+    <hyperlink ref="V4" r:id="rId12"/>
+    <hyperlink ref="AG4" r:id="rId13"/>
+    <hyperlink ref="AH4" r:id="rId14"/>
+    <hyperlink ref="AK4" r:id="rId15"/>
+    <hyperlink ref="I5" r:id="rId16"/>
+    <hyperlink ref="V5" r:id="rId17"/>
+    <hyperlink ref="AG5" r:id="rId18"/>
+    <hyperlink ref="AH5" r:id="rId19"/>
+    <hyperlink ref="AK5" r:id="rId20" location="rooms"/>
+    <hyperlink ref="I6" r:id="rId21"/>
+    <hyperlink ref="V6" r:id="rId22"/>
+    <hyperlink ref="AG6" r:id="rId23"/>
+    <hyperlink ref="AH6" r:id="rId24"/>
+    <hyperlink ref="AK6" r:id="rId25"/>
+    <hyperlink ref="I7" r:id="rId26"/>
+    <hyperlink ref="V7" r:id="rId27"/>
+    <hyperlink ref="AG7" r:id="rId28"/>
+    <hyperlink ref="AH7" r:id="rId29"/>
+    <hyperlink ref="AK7" r:id="rId30"/>
+    <hyperlink ref="I8" r:id="rId31"/>
+    <hyperlink ref="V8" r:id="rId32"/>
+    <hyperlink ref="AG8" r:id="rId33"/>
+    <hyperlink ref="AH8" r:id="rId34"/>
+    <hyperlink ref="AK8" r:id="rId35"/>
+    <hyperlink ref="AM8" r:id="rId36"/>
+    <hyperlink ref="I9" r:id="rId37"/>
+    <hyperlink ref="V9" r:id="rId38"/>
+    <hyperlink ref="AG9" r:id="rId39"/>
+    <hyperlink ref="AH9" r:id="rId40"/>
+    <hyperlink ref="AK9" r:id="rId41"/>
+    <hyperlink ref="I10" r:id="rId42"/>
+    <hyperlink ref="V10" r:id="rId43"/>
+    <hyperlink ref="AG10" r:id="rId44"/>
+    <hyperlink ref="AH10" r:id="rId45"/>
+    <hyperlink ref="AK10" r:id="rId46"/>
+    <hyperlink ref="I11" r:id="rId47"/>
+    <hyperlink ref="V11" r:id="rId48"/>
+    <hyperlink ref="AG11" r:id="rId49"/>
+    <hyperlink ref="AH11" r:id="rId50"/>
+    <hyperlink ref="AK11" r:id="rId51"/>
+    <hyperlink ref="I12" r:id="rId52"/>
+    <hyperlink ref="V12" r:id="rId53"/>
+    <hyperlink ref="AG12" r:id="rId54"/>
+    <hyperlink ref="AH12" r:id="rId55"/>
+    <hyperlink ref="AK12" r:id="rId56"/>
+    <hyperlink ref="I13" r:id="rId57"/>
+    <hyperlink ref="V13" r:id="rId58"/>
+    <hyperlink ref="AG13" r:id="rId59"/>
+    <hyperlink ref="AH13" r:id="rId60"/>
+    <hyperlink ref="AK13" r:id="rId61"/>
+    <hyperlink ref="I14" r:id="rId62"/>
+    <hyperlink ref="V14" r:id="rId63"/>
+    <hyperlink ref="AG14" r:id="rId64"/>
+    <hyperlink ref="AH14" r:id="rId65"/>
+    <hyperlink ref="AK14" r:id="rId66"/>
+    <hyperlink ref="I15" r:id="rId67"/>
+    <hyperlink ref="V15" r:id="rId68"/>
+    <hyperlink ref="AG15" r:id="rId69"/>
+    <hyperlink ref="AH15" r:id="rId70"/>
+    <hyperlink ref="AK15" r:id="rId71"/>
+    <hyperlink ref="AM15" r:id="rId72"/>
+    <hyperlink ref="I16" r:id="rId73"/>
+    <hyperlink ref="V16" r:id="rId74"/>
+    <hyperlink ref="AG16" r:id="rId75"/>
+    <hyperlink ref="AH16" r:id="rId76"/>
+    <hyperlink ref="AK16" r:id="rId77"/>
+    <hyperlink ref="AM16" r:id="rId78"/>
+    <hyperlink ref="I17" r:id="rId79"/>
+    <hyperlink ref="V17" r:id="rId80"/>
+    <hyperlink ref="AG17" r:id="rId81"/>
+    <hyperlink ref="AH17" r:id="rId82"/>
+    <hyperlink ref="AK17" r:id="rId83"/>
+    <hyperlink ref="AM17" r:id="rId84"/>
+    <hyperlink ref="I18" r:id="rId85"/>
+    <hyperlink ref="V18" r:id="rId86"/>
+    <hyperlink ref="AG18" r:id="rId87"/>
+    <hyperlink ref="AH18" r:id="rId88"/>
+    <hyperlink ref="AK18" r:id="rId89"/>
+    <hyperlink ref="AM18" r:id="rId90"/>
+    <hyperlink ref="I19" r:id="rId91"/>
+    <hyperlink ref="V19" r:id="rId92"/>
+    <hyperlink ref="AG19" r:id="rId93"/>
+    <hyperlink ref="AH19" r:id="rId94"/>
+    <hyperlink ref="AK19" r:id="rId95"/>
+    <hyperlink ref="AM19" r:id="rId96"/>
+    <hyperlink ref="I20" r:id="rId97"/>
+    <hyperlink ref="V20" r:id="rId98"/>
+    <hyperlink ref="AG20" r:id="rId99"/>
+    <hyperlink ref="AH20" r:id="rId100"/>
+    <hyperlink ref="AK20" r:id="rId101"/>
+    <hyperlink ref="I21" r:id="rId102"/>
+    <hyperlink ref="V21" r:id="rId103"/>
+    <hyperlink ref="AG21" r:id="rId104"/>
+    <hyperlink ref="AH21" r:id="rId105"/>
+    <hyperlink ref="AK21" r:id="rId106"/>
+    <hyperlink ref="I22" r:id="rId107"/>
+    <hyperlink ref="V22" r:id="rId108"/>
+    <hyperlink ref="AG22" r:id="rId109"/>
+    <hyperlink ref="AH22" r:id="rId110"/>
+    <hyperlink ref="AK22" r:id="rId111" location="events"/>
+    <hyperlink ref="I23" r:id="rId112"/>
+    <hyperlink ref="V23" r:id="rId113"/>
+    <hyperlink ref="AG23" r:id="rId114"/>
+    <hyperlink ref="AH23" r:id="rId115"/>
+    <hyperlink ref="AK23" r:id="rId116" location="contactform"/>
+    <hyperlink ref="AM23" r:id="rId117" location="speisekarten"/>
+    <hyperlink ref="I24" r:id="rId118"/>
+    <hyperlink ref="V24" r:id="rId119"/>
+    <hyperlink ref="AG24" r:id="rId120"/>
+    <hyperlink ref="AH24" r:id="rId121"/>
+    <hyperlink ref="AK24" r:id="rId122"/>
+    <hyperlink ref="AM24" r:id="rId123"/>
+    <hyperlink ref="I25" r:id="rId124"/>
+    <hyperlink ref="V25" r:id="rId125"/>
+    <hyperlink ref="AG25" r:id="rId126"/>
+    <hyperlink ref="AH25" r:id="rId127"/>
+    <hyperlink ref="AK25" r:id="rId128"/>
+    <hyperlink ref="AM25" r:id="rId129"/>
+    <hyperlink ref="I26" r:id="rId130"/>
+    <hyperlink ref="V26" r:id="rId131"/>
+    <hyperlink ref="AG26" r:id="rId132"/>
+    <hyperlink ref="AH26" r:id="rId133"/>
+    <hyperlink ref="AK26" r:id="rId134"/>
+    <hyperlink ref="AM26" r:id="rId135"/>
+    <hyperlink ref="I27" r:id="rId136"/>
+    <hyperlink ref="V27" r:id="rId137"/>
+    <hyperlink ref="AG27" r:id="rId138"/>
+    <hyperlink ref="AK27" r:id="rId139"/>
+    <hyperlink ref="AM27" r:id="rId140"/>
+    <hyperlink ref="I28" r:id="rId141"/>
+    <hyperlink ref="V28" r:id="rId142"/>
+    <hyperlink ref="AK28" r:id="rId143"/>
+    <hyperlink ref="AM28" r:id="rId144"/>
+    <hyperlink ref="I29" r:id="rId145"/>
+    <hyperlink ref="V29" r:id="rId146"/>
+    <hyperlink ref="AG29" r:id="rId147"/>
+    <hyperlink ref="AH29" r:id="rId148"/>
+    <hyperlink ref="AK29" r:id="rId149"/>
+    <hyperlink ref="I30" r:id="rId150"/>
+    <hyperlink ref="V30" r:id="rId151"/>
+    <hyperlink ref="AG30" r:id="rId152"/>
+    <hyperlink ref="AH30" r:id="rId153"/>
+    <hyperlink ref="AK30" r:id="rId154"/>
+    <hyperlink ref="I31" r:id="rId155"/>
+    <hyperlink ref="V31" r:id="rId156"/>
+    <hyperlink ref="AG31" r:id="rId157"/>
+    <hyperlink ref="AH31" r:id="rId158"/>
+    <hyperlink ref="AK31" r:id="rId159"/>
+    <hyperlink ref="I32" r:id="rId160"/>
+    <hyperlink ref="V32" r:id="rId161"/>
+    <hyperlink ref="I33" r:id="rId162"/>
+    <hyperlink ref="V33" r:id="rId163"/>
+    <hyperlink ref="AK33" r:id="rId164"/>
+    <hyperlink ref="AM33" r:id="rId165"/>
+    <hyperlink ref="I34" r:id="rId166"/>
+    <hyperlink ref="V34" r:id="rId167"/>
+    <hyperlink ref="AK34" r:id="rId168"/>
+    <hyperlink ref="I35" r:id="rId169"/>
+    <hyperlink ref="V35" r:id="rId170"/>
+    <hyperlink ref="AK35" r:id="rId171"/>
+    <hyperlink ref="AM35" r:id="rId172"/>
+    <hyperlink ref="I36" r:id="rId173"/>
+    <hyperlink ref="V36" r:id="rId174"/>
+    <hyperlink ref="AK36" r:id="rId175"/>
+    <hyperlink ref="AM36" r:id="rId176"/>
+    <hyperlink ref="I37" r:id="rId177"/>
+    <hyperlink ref="V37" r:id="rId178"/>
+    <hyperlink ref="AK37" r:id="rId179"/>
+    <hyperlink ref="AM37" r:id="rId180"/>
+    <hyperlink ref="I38" r:id="rId181"/>
+    <hyperlink ref="I39" r:id="rId182"/>
+    <hyperlink ref="I40" r:id="rId183"/>
+    <hyperlink ref="I41" r:id="rId184"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/activities.xlsx
+++ b/backend/data/activities.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asi\Documents\GitHub\eventhorizon\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2BA060-605F-455D-BB81-C3DB4863C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1774,8 +1793,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,18 +1865,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1895,7 +1922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1929,6 +1956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1963,9 +1991,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2138,14 +2167,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2302,19 +2345,19 @@
         <v>174</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
         <v>214</v>
       </c>
       <c r="Q2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R2">
         <v>7</v>
@@ -2347,7 +2390,7 @@
         <v>435</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -2380,7 +2423,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2418,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -2490,7 +2533,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2525,13 +2568,13 @@
         <v>176</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
         <v>216</v>
@@ -2567,7 +2610,7 @@
         <v>435</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -2600,7 +2643,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2635,19 +2678,19 @@
         <v>177</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>217</v>
       </c>
       <c r="Q5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S5" t="s">
         <v>254</v>
@@ -2677,7 +2720,7 @@
         <v>435</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -2710,7 +2753,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2745,10 +2788,10 @@
         <v>178</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -2787,7 +2830,7 @@
         <v>435</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>2</v>
@@ -2820,7 +2863,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2867,7 +2910,7 @@
         <v>219</v>
       </c>
       <c r="Q7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S7" t="s">
         <v>256</v>
@@ -2897,7 +2940,7 @@
         <v>435</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>1</v>
@@ -2930,7 +2973,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2968,13 +3011,13 @@
         <v>180</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
         <v>220</v>
@@ -3010,7 +3053,7 @@
         <v>436</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>3.5</v>
@@ -3046,7 +3089,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3081,7 +3124,7 @@
         <v>181</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3156,7 +3199,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3194,7 +3237,7 @@
         <v>182</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -3269,7 +3312,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3304,13 +3347,13 @@
         <v>183</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>223</v>
@@ -3346,7 +3389,7 @@
         <v>436</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>3.5</v>
@@ -3379,7 +3422,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>184</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3456,7 +3499,7 @@
         <v>436</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>3.5</v>
@@ -3489,7 +3532,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3524,10 +3567,10 @@
         <v>185</v>
       </c>
       <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>3</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -3599,7 +3642,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3634,19 +3677,19 @@
         <v>186</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="O14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
         <v>226</v>
       </c>
       <c r="Q14">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S14" t="s">
         <v>254</v>
@@ -3676,7 +3719,7 @@
         <v>436</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>3.5</v>
@@ -3709,7 +3752,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3747,10 +3790,10 @@
         <v>187</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>4</v>
@@ -3759,7 +3802,7 @@
         <v>227</v>
       </c>
       <c r="Q15">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S15" t="s">
         <v>254</v>
@@ -3789,7 +3832,7 @@
         <v>437</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>3.5</v>
@@ -3825,7 +3868,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3863,10 +3906,10 @@
         <v>188</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -3905,7 +3948,7 @@
         <v>437</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>3.5</v>
@@ -3941,7 +3984,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3979,10 +4022,10 @@
         <v>189</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>4</v>
@@ -3991,7 +4034,7 @@
         <v>229</v>
       </c>
       <c r="Q17">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S17" t="s">
         <v>254</v>
@@ -4021,7 +4064,7 @@
         <v>437</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>3.5</v>
@@ -4057,7 +4100,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4095,10 +4138,10 @@
         <v>190</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -4107,7 +4150,7 @@
         <v>230</v>
       </c>
       <c r="Q18">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S18" t="s">
         <v>254</v>
@@ -4137,7 +4180,7 @@
         <v>437</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>3.5</v>
@@ -4173,7 +4216,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4211,10 +4254,10 @@
         <v>191</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>4</v>
@@ -4253,7 +4296,7 @@
         <v>437</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>3.5</v>
@@ -4289,7 +4332,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4399,7 +4442,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4434,13 +4477,13 @@
         <v>193</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>233</v>
@@ -4476,7 +4519,7 @@
         <v>436</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>3.5</v>
@@ -4509,7 +4552,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4544,10 +4587,10 @@
         <v>194</v>
       </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>2</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
       </c>
       <c r="O22">
         <v>4</v>
@@ -4586,7 +4629,7 @@
         <v>436</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>3.5</v>
@@ -4619,7 +4662,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4657,10 +4700,10 @@
         <v>195</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>4</v>
@@ -4699,7 +4742,7 @@
         <v>437</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>3.5</v>
@@ -4735,7 +4778,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4773,10 +4816,10 @@
         <v>196</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -4785,7 +4828,7 @@
         <v>236</v>
       </c>
       <c r="Q24">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S24" t="s">
         <v>254</v>
@@ -4815,7 +4858,7 @@
         <v>437</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>3.5</v>
@@ -4851,7 +4894,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4889,10 +4932,10 @@
         <v>197</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>4</v>
@@ -4931,7 +4974,7 @@
         <v>437</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>3.5</v>
@@ -4967,7 +5010,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5005,10 +5048,10 @@
         <v>198</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>4</v>
@@ -5017,7 +5060,7 @@
         <v>238</v>
       </c>
       <c r="Q26">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -5047,7 +5090,7 @@
         <v>437</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>3.5</v>
@@ -5083,7 +5126,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5121,10 +5164,10 @@
         <v>199</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>4</v>
@@ -5133,7 +5176,7 @@
         <v>239</v>
       </c>
       <c r="Q27">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S27" t="s">
         <v>254</v>
@@ -5163,7 +5206,7 @@
         <v>437</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>3.5</v>
@@ -5196,7 +5239,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5234,10 +5277,10 @@
         <v>200</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>4</v>
@@ -5276,7 +5319,7 @@
         <v>437</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>3.5</v>
@@ -5306,7 +5349,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5344,16 +5387,16 @@
         <v>5</v>
       </c>
       <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
         <v>3</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
       </c>
       <c r="P29" t="s">
         <v>241</v>
       </c>
       <c r="Q29">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S29" t="s">
         <v>255</v>
@@ -5416,7 +5459,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5526,7 +5569,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5561,19 +5604,19 @@
         <v>203</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P31" t="s">
         <v>243</v>
       </c>
       <c r="Q31">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S31" t="s">
         <v>254</v>
@@ -5603,7 +5646,7 @@
         <v>435</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC31">
         <v>3</v>
@@ -5636,7 +5679,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5674,10 +5717,10 @@
         <v>204</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -5686,7 +5729,7 @@
         <v>244</v>
       </c>
       <c r="Q32">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S32" t="s">
         <v>254</v>
@@ -5716,7 +5759,7 @@
         <v>80</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>2.5</v>
@@ -5740,7 +5783,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5778,10 +5821,10 @@
         <v>205</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>5</v>
@@ -5790,7 +5833,7 @@
         <v>245</v>
       </c>
       <c r="Q33">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S33" t="s">
         <v>254</v>
@@ -5820,7 +5863,7 @@
         <v>80</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>2.5</v>
@@ -5847,7 +5890,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5882,7 +5925,7 @@
         <v>206</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -5894,7 +5937,7 @@
         <v>246</v>
       </c>
       <c r="Q34">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S34" t="s">
         <v>254</v>
@@ -5948,7 +5991,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5986,10 +6029,10 @@
         <v>207</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>5</v>
@@ -6028,7 +6071,7 @@
         <v>80</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>2.5</v>
@@ -6055,7 +6098,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6090,7 +6133,7 @@
         <v>208</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -6159,7 +6202,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6197,10 +6240,10 @@
         <v>209</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>5</v>
@@ -6239,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>2.5</v>
@@ -6269,7 +6312,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6307,7 +6350,7 @@
         <v>210</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -6358,7 +6401,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6396,10 +6439,10 @@
         <v>211</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>5</v>
@@ -6423,7 +6466,7 @@
         <v>436</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>2</v>
@@ -6447,7 +6490,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6485,10 +6528,10 @@
         <v>212</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>5</v>
@@ -6512,7 +6555,7 @@
         <v>436</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>2</v>
@@ -6536,7 +6579,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6574,10 +6617,10 @@
         <v>213</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>5</v>
@@ -6601,7 +6644,7 @@
         <v>436</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>3</v>
@@ -6627,190 +6670,190 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="AG2" r:id="rId3"/>
-    <hyperlink ref="AH2" r:id="rId4"/>
-    <hyperlink ref="AK2" r:id="rId5"/>
-    <hyperlink ref="I3" r:id="rId6"/>
-    <hyperlink ref="V3" r:id="rId7"/>
-    <hyperlink ref="AG3" r:id="rId8"/>
-    <hyperlink ref="AH3" r:id="rId9"/>
-    <hyperlink ref="AK3" r:id="rId10" location="order"/>
-    <hyperlink ref="I4" r:id="rId11"/>
-    <hyperlink ref="V4" r:id="rId12"/>
-    <hyperlink ref="AG4" r:id="rId13"/>
-    <hyperlink ref="AH4" r:id="rId14"/>
-    <hyperlink ref="AK4" r:id="rId15"/>
-    <hyperlink ref="I5" r:id="rId16"/>
-    <hyperlink ref="V5" r:id="rId17"/>
-    <hyperlink ref="AG5" r:id="rId18"/>
-    <hyperlink ref="AH5" r:id="rId19"/>
-    <hyperlink ref="AK5" r:id="rId20" location="rooms"/>
-    <hyperlink ref="I6" r:id="rId21"/>
-    <hyperlink ref="V6" r:id="rId22"/>
-    <hyperlink ref="AG6" r:id="rId23"/>
-    <hyperlink ref="AH6" r:id="rId24"/>
-    <hyperlink ref="AK6" r:id="rId25"/>
-    <hyperlink ref="I7" r:id="rId26"/>
-    <hyperlink ref="V7" r:id="rId27"/>
-    <hyperlink ref="AG7" r:id="rId28"/>
-    <hyperlink ref="AH7" r:id="rId29"/>
-    <hyperlink ref="AK7" r:id="rId30"/>
-    <hyperlink ref="I8" r:id="rId31"/>
-    <hyperlink ref="V8" r:id="rId32"/>
-    <hyperlink ref="AG8" r:id="rId33"/>
-    <hyperlink ref="AH8" r:id="rId34"/>
-    <hyperlink ref="AK8" r:id="rId35"/>
-    <hyperlink ref="AM8" r:id="rId36"/>
-    <hyperlink ref="I9" r:id="rId37"/>
-    <hyperlink ref="V9" r:id="rId38"/>
-    <hyperlink ref="AG9" r:id="rId39"/>
-    <hyperlink ref="AH9" r:id="rId40"/>
-    <hyperlink ref="AK9" r:id="rId41"/>
-    <hyperlink ref="I10" r:id="rId42"/>
-    <hyperlink ref="V10" r:id="rId43"/>
-    <hyperlink ref="AG10" r:id="rId44"/>
-    <hyperlink ref="AH10" r:id="rId45"/>
-    <hyperlink ref="AK10" r:id="rId46"/>
-    <hyperlink ref="I11" r:id="rId47"/>
-    <hyperlink ref="V11" r:id="rId48"/>
-    <hyperlink ref="AG11" r:id="rId49"/>
-    <hyperlink ref="AH11" r:id="rId50"/>
-    <hyperlink ref="AK11" r:id="rId51"/>
-    <hyperlink ref="I12" r:id="rId52"/>
-    <hyperlink ref="V12" r:id="rId53"/>
-    <hyperlink ref="AG12" r:id="rId54"/>
-    <hyperlink ref="AH12" r:id="rId55"/>
-    <hyperlink ref="AK12" r:id="rId56"/>
-    <hyperlink ref="I13" r:id="rId57"/>
-    <hyperlink ref="V13" r:id="rId58"/>
-    <hyperlink ref="AG13" r:id="rId59"/>
-    <hyperlink ref="AH13" r:id="rId60"/>
-    <hyperlink ref="AK13" r:id="rId61"/>
-    <hyperlink ref="I14" r:id="rId62"/>
-    <hyperlink ref="V14" r:id="rId63"/>
-    <hyperlink ref="AG14" r:id="rId64"/>
-    <hyperlink ref="AH14" r:id="rId65"/>
-    <hyperlink ref="AK14" r:id="rId66"/>
-    <hyperlink ref="I15" r:id="rId67"/>
-    <hyperlink ref="V15" r:id="rId68"/>
-    <hyperlink ref="AG15" r:id="rId69"/>
-    <hyperlink ref="AH15" r:id="rId70"/>
-    <hyperlink ref="AK15" r:id="rId71"/>
-    <hyperlink ref="AM15" r:id="rId72"/>
-    <hyperlink ref="I16" r:id="rId73"/>
-    <hyperlink ref="V16" r:id="rId74"/>
-    <hyperlink ref="AG16" r:id="rId75"/>
-    <hyperlink ref="AH16" r:id="rId76"/>
-    <hyperlink ref="AK16" r:id="rId77"/>
-    <hyperlink ref="AM16" r:id="rId78"/>
-    <hyperlink ref="I17" r:id="rId79"/>
-    <hyperlink ref="V17" r:id="rId80"/>
-    <hyperlink ref="AG17" r:id="rId81"/>
-    <hyperlink ref="AH17" r:id="rId82"/>
-    <hyperlink ref="AK17" r:id="rId83"/>
-    <hyperlink ref="AM17" r:id="rId84"/>
-    <hyperlink ref="I18" r:id="rId85"/>
-    <hyperlink ref="V18" r:id="rId86"/>
-    <hyperlink ref="AG18" r:id="rId87"/>
-    <hyperlink ref="AH18" r:id="rId88"/>
-    <hyperlink ref="AK18" r:id="rId89"/>
-    <hyperlink ref="AM18" r:id="rId90"/>
-    <hyperlink ref="I19" r:id="rId91"/>
-    <hyperlink ref="V19" r:id="rId92"/>
-    <hyperlink ref="AG19" r:id="rId93"/>
-    <hyperlink ref="AH19" r:id="rId94"/>
-    <hyperlink ref="AK19" r:id="rId95"/>
-    <hyperlink ref="AM19" r:id="rId96"/>
-    <hyperlink ref="I20" r:id="rId97"/>
-    <hyperlink ref="V20" r:id="rId98"/>
-    <hyperlink ref="AG20" r:id="rId99"/>
-    <hyperlink ref="AH20" r:id="rId100"/>
-    <hyperlink ref="AK20" r:id="rId101"/>
-    <hyperlink ref="I21" r:id="rId102"/>
-    <hyperlink ref="V21" r:id="rId103"/>
-    <hyperlink ref="AG21" r:id="rId104"/>
-    <hyperlink ref="AH21" r:id="rId105"/>
-    <hyperlink ref="AK21" r:id="rId106"/>
-    <hyperlink ref="I22" r:id="rId107"/>
-    <hyperlink ref="V22" r:id="rId108"/>
-    <hyperlink ref="AG22" r:id="rId109"/>
-    <hyperlink ref="AH22" r:id="rId110"/>
-    <hyperlink ref="AK22" r:id="rId111" location="events"/>
-    <hyperlink ref="I23" r:id="rId112"/>
-    <hyperlink ref="V23" r:id="rId113"/>
-    <hyperlink ref="AG23" r:id="rId114"/>
-    <hyperlink ref="AH23" r:id="rId115"/>
-    <hyperlink ref="AK23" r:id="rId116" location="contactform"/>
-    <hyperlink ref="AM23" r:id="rId117" location="speisekarten"/>
-    <hyperlink ref="I24" r:id="rId118"/>
-    <hyperlink ref="V24" r:id="rId119"/>
-    <hyperlink ref="AG24" r:id="rId120"/>
-    <hyperlink ref="AH24" r:id="rId121"/>
-    <hyperlink ref="AK24" r:id="rId122"/>
-    <hyperlink ref="AM24" r:id="rId123"/>
-    <hyperlink ref="I25" r:id="rId124"/>
-    <hyperlink ref="V25" r:id="rId125"/>
-    <hyperlink ref="AG25" r:id="rId126"/>
-    <hyperlink ref="AH25" r:id="rId127"/>
-    <hyperlink ref="AK25" r:id="rId128"/>
-    <hyperlink ref="AM25" r:id="rId129"/>
-    <hyperlink ref="I26" r:id="rId130"/>
-    <hyperlink ref="V26" r:id="rId131"/>
-    <hyperlink ref="AG26" r:id="rId132"/>
-    <hyperlink ref="AH26" r:id="rId133"/>
-    <hyperlink ref="AK26" r:id="rId134"/>
-    <hyperlink ref="AM26" r:id="rId135"/>
-    <hyperlink ref="I27" r:id="rId136"/>
-    <hyperlink ref="V27" r:id="rId137"/>
-    <hyperlink ref="AG27" r:id="rId138"/>
-    <hyperlink ref="AK27" r:id="rId139"/>
-    <hyperlink ref="AM27" r:id="rId140"/>
-    <hyperlink ref="I28" r:id="rId141"/>
-    <hyperlink ref="V28" r:id="rId142"/>
-    <hyperlink ref="AK28" r:id="rId143"/>
-    <hyperlink ref="AM28" r:id="rId144"/>
-    <hyperlink ref="I29" r:id="rId145"/>
-    <hyperlink ref="V29" r:id="rId146"/>
-    <hyperlink ref="AG29" r:id="rId147"/>
-    <hyperlink ref="AH29" r:id="rId148"/>
-    <hyperlink ref="AK29" r:id="rId149"/>
-    <hyperlink ref="I30" r:id="rId150"/>
-    <hyperlink ref="V30" r:id="rId151"/>
-    <hyperlink ref="AG30" r:id="rId152"/>
-    <hyperlink ref="AH30" r:id="rId153"/>
-    <hyperlink ref="AK30" r:id="rId154"/>
-    <hyperlink ref="I31" r:id="rId155"/>
-    <hyperlink ref="V31" r:id="rId156"/>
-    <hyperlink ref="AG31" r:id="rId157"/>
-    <hyperlink ref="AH31" r:id="rId158"/>
-    <hyperlink ref="AK31" r:id="rId159"/>
-    <hyperlink ref="I32" r:id="rId160"/>
-    <hyperlink ref="V32" r:id="rId161"/>
-    <hyperlink ref="I33" r:id="rId162"/>
-    <hyperlink ref="V33" r:id="rId163"/>
-    <hyperlink ref="AK33" r:id="rId164"/>
-    <hyperlink ref="AM33" r:id="rId165"/>
-    <hyperlink ref="I34" r:id="rId166"/>
-    <hyperlink ref="V34" r:id="rId167"/>
-    <hyperlink ref="AK34" r:id="rId168"/>
-    <hyperlink ref="I35" r:id="rId169"/>
-    <hyperlink ref="V35" r:id="rId170"/>
-    <hyperlink ref="AK35" r:id="rId171"/>
-    <hyperlink ref="AM35" r:id="rId172"/>
-    <hyperlink ref="I36" r:id="rId173"/>
-    <hyperlink ref="V36" r:id="rId174"/>
-    <hyperlink ref="AK36" r:id="rId175"/>
-    <hyperlink ref="AM36" r:id="rId176"/>
-    <hyperlink ref="I37" r:id="rId177"/>
-    <hyperlink ref="V37" r:id="rId178"/>
-    <hyperlink ref="AK37" r:id="rId179"/>
-    <hyperlink ref="AM37" r:id="rId180"/>
-    <hyperlink ref="I38" r:id="rId181"/>
-    <hyperlink ref="I39" r:id="rId182"/>
-    <hyperlink ref="I40" r:id="rId183"/>
-    <hyperlink ref="I41" r:id="rId184"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AG2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AH2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AK2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AG3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AH3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AK3" r:id="rId10" location="order" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AG4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AH4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AK4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AG5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AH5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AK5" r:id="rId20" location="rooms" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AG6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AH6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AK6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="V7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AG7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AH7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AK7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AG8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AH8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AK8" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AM8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AG9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AH9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AK9" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="V10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AG10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AH10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AK10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I11" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="V11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AG11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AH11" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AK11" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I12" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AG12" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AH12" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AK12" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I13" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="V13" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AG13" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AH13" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AK13" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="V14" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AG14" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AH14" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AK14" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="V15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="AG15" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AH15" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AK15" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AM15" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="V16" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AG16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AH16" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AK16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AM16" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="V17" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AG17" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AH17" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK17" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AM17" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I18" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="V18" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AG18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AH18" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AK18" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AM18" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I19" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="V19" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AG19" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AH19" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AK19" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AM19" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I20" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="V20" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="AG20" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AH20" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="AK20" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I21" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="V21" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="AG21" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="AH21" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="AK21" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I22" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="V22" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="AG22" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="AH22" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="AK22" r:id="rId111" location="events" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I23" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="V23" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="AG23" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="AH23" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="AK23" r:id="rId116" location="contactform" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="AM23" r:id="rId117" location="speisekarten" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="I24" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="V24" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="AG24" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="AH24" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="AK24" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="AM24" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="I25" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="V25" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="AG25" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="AH25" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="AK25" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="AM25" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="I26" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="V26" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="AG26" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="AH26" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AK26" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="AM26" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="I27" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="V27" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="AG27" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="AK27" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="AM27" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="I28" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="V28" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="AK28" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="AM28" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="I29" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="V29" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="AG29" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="AH29" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="AK29" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="I30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="V30" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="AG30" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="AH30" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="AK30" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="I31" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="V31" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="AG31" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="AH31" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="AK31" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="I32" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="V32" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="I33" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="V33" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="AK33" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="AM33" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="I34" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="V34" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="AK34" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="I35" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="V35" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="AK35" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="AM35" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="I36" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="V36" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="AK36" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="AM36" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="I37" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="V37" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="AK37" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="AM37" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="I38" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="I39" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="I40" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="I41" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
